--- a/Argon_lines.xlsx
+++ b/Argon_lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\DiadFit_outer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85735452-EC65-42F1-8F66-D1B2871E6F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42056FC6-CE48-4C51-AB2C-D0040573BE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D264A050-787A-4531-9E38-7F430A2631F1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="253">
   <si>
     <t> 2420.456</t>
   </si>
@@ -793,12 +793,19 @@
   </si>
   <si>
     <t>Raman shift</t>
+  </si>
+  <si>
+    <t>* From Ayla, line position not in NIST tables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -822,7 +829,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +839,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -857,6 +870,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -913,6 +929,50 @@
         <a:xfrm>
           <a:off x="7975600" y="368300"/>
           <a:ext cx="4515082" cy="1771741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171826</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>114330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF7446D-D9D2-B089-C544-A00F80C4AA50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="26606500"/>
+          <a:ext cx="7321926" cy="577880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7736,16 +7796,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0600E0-03FD-4BCF-AD29-EED318280DF2}">
-  <dimension ref="A1:K260"/>
+  <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C138" workbookViewId="0">
-      <selection activeCell="K146" sqref="K146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -12816,19 +12878,19 @@
         <v>238</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H194" si="8">C131&amp;D131</f>
+        <f t="shared" ref="H131:H195" si="8">C131&amp;D131</f>
         <v>4879.864,</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="9">((1/532.06)-(1/(C131)))*10^7</f>
+        <f t="shared" ref="I131:I195" si="9">((1/532.06)-(1/(C131)))*10^7</f>
         <v>16745.635320946767</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="10">C131/10</f>
+        <f t="shared" ref="J131:J195" si="10">C131/10</f>
         <v>487.98639999999995</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="11">(10^7/532.06)-(10^7)/J131</f>
+        <f t="shared" ref="K131:K195" si="11">(10^7/532.06)-(10^7)/J131</f>
         <v>-1697.5016189351663</v>
       </c>
     </row>
@@ -13339,7 +13401,7 @@
         <v>-373.91493431347044</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1</v>
       </c>
@@ -13378,1837 +13440,1810 @@
         <v>599.40466755795205</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146" t="s">
-        <v>216</v>
-      </c>
-      <c r="C146">
+    <row r="146" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
+        <v>1</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C146" s="3">
         <v>5558.7020000000002</v>
       </c>
-      <c r="D146" t="s">
-        <v>216</v>
-      </c>
-      <c r="E146" t="s">
-        <v>215</v>
-      </c>
-      <c r="F146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="D146" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H146" t="str">
+      <c r="H146" s="3" t="str">
         <f t="shared" si="8"/>
         <v>5558.702,</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="3">
         <f t="shared" si="9"/>
         <v>16995.891629663671</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="3">
         <f t="shared" si="10"/>
         <v>555.87020000000007</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="3">
         <f t="shared" si="11"/>
         <v>805.06146823390372</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147" t="s">
-        <v>216</v>
-      </c>
-      <c r="C147">
+    <row r="147" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
+        <v>1</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" s="3">
         <v>5606.7330000000002</v>
       </c>
-      <c r="D147" t="s">
-        <v>216</v>
-      </c>
-      <c r="E147" t="s">
-        <v>215</v>
-      </c>
-      <c r="F147" t="s">
-        <v>1</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="D147" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H147" t="str">
+      <c r="H147" s="3" t="str">
         <f t="shared" si="8"/>
         <v>5606.733,</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="3">
         <f t="shared" si="9"/>
         <v>17011.302897260917</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="3">
         <f t="shared" si="10"/>
         <v>560.67330000000004</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="5">
         <f t="shared" si="11"/>
         <v>959.17414420633213</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148" t="s">
-        <v>216</v>
-      </c>
-      <c r="C148">
+    <row r="148" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
+        <v>1</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" s="3">
         <v>5650.7039999999997</v>
       </c>
-      <c r="D148" t="s">
-        <v>216</v>
-      </c>
-      <c r="E148" t="s">
-        <v>215</v>
-      </c>
-      <c r="F148" t="s">
-        <v>1</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="D148" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H148" t="str">
+      <c r="H148" s="3" t="str">
         <f t="shared" si="8"/>
         <v>5650.704,</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="3">
         <f t="shared" si="9"/>
         <v>17025.181760917167</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="3">
         <f t="shared" si="10"/>
         <v>565.07039999999995</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="5">
         <f t="shared" si="11"/>
         <v>1097.9627807688521</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149" t="s">
-        <v>216</v>
-      </c>
-      <c r="C149">
+    <row r="149" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J149" s="4">
+        <f>(10^7)/(10^7/532.06 - 1371.812991)</f>
+        <v>573.95200001162198</v>
+      </c>
+      <c r="K149" s="5">
+        <v>1371.812991</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="3">
+        <v>1</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C150" s="3">
         <v>5888.5839999999998</v>
       </c>
-      <c r="D149" t="s">
-        <v>216</v>
-      </c>
-      <c r="E149" t="s">
-        <v>215</v>
-      </c>
-      <c r="F149" t="s">
-        <v>1</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="D150" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H149" t="str">
+      <c r="H150" s="3" t="str">
         <f t="shared" si="8"/>
         <v>5888.584,</v>
       </c>
-      <c r="I149">
+      <c r="I150" s="3">
         <f t="shared" si="9"/>
         <v>17096.671629203891</v>
       </c>
-      <c r="J149">
+      <c r="J150" s="3">
         <f t="shared" si="10"/>
         <v>588.85839999999996</v>
       </c>
-      <c r="K149">
+      <c r="K150" s="5">
         <f t="shared" si="11"/>
         <v>1812.8614636360726</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150" t="s">
-        <v>216</v>
-      </c>
-      <c r="C150">
+    <row r="151" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="3">
+        <v>1</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" s="3">
         <v>5912.085</v>
       </c>
-      <c r="D150" t="s">
-        <v>216</v>
-      </c>
-      <c r="E150" t="s">
-        <v>215</v>
-      </c>
-      <c r="F150" t="s">
-        <v>1</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="D151" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H150" t="str">
+      <c r="H151" s="3" t="str">
         <f t="shared" si="8"/>
         <v>5912.085,</v>
       </c>
-      <c r="I150">
+      <c r="I151" s="3">
         <f t="shared" si="9"/>
         <v>17103.42211143555</v>
       </c>
-      <c r="J150">
+      <c r="J151" s="3">
         <f t="shared" si="10"/>
         <v>591.20849999999996</v>
       </c>
-      <c r="K150">
+      <c r="K151" s="5">
         <f t="shared" si="11"/>
         <v>1880.3662859526594</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>2</v>
       </c>
-      <c r="B151" t="s">
-        <v>216</v>
-      </c>
-      <c r="C151">
+      <c r="B152" t="s">
+        <v>216</v>
+      </c>
+      <c r="C152">
         <v>6032.1270000000004</v>
       </c>
-      <c r="D151" t="s">
-        <v>216</v>
-      </c>
-      <c r="E151" t="s">
-        <v>215</v>
-      </c>
-      <c r="F151" t="s">
-        <v>1</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="D152" t="s">
+        <v>216</v>
+      </c>
+      <c r="E152" t="s">
+        <v>215</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
         <v>222</v>
       </c>
-      <c r="H151" t="str">
+      <c r="H152" t="str">
         <f t="shared" si="8"/>
         <v>6032.127,</v>
       </c>
-      <c r="I151">
+      <c r="I152">
         <f t="shared" si="9"/>
         <v>17137.082728760135</v>
       </c>
-      <c r="J151">
+      <c r="J152">
         <f t="shared" si="10"/>
         <v>603.21270000000004</v>
       </c>
-      <c r="K151">
+      <c r="K152">
         <f t="shared" si="11"/>
         <v>2216.9724591985032</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152" t="s">
-        <v>216</v>
-      </c>
-      <c r="C152">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153">
         <v>6043.223</v>
       </c>
-      <c r="D152" t="s">
-        <v>216</v>
-      </c>
-      <c r="E152" t="s">
-        <v>215</v>
-      </c>
-      <c r="F152" t="s">
-        <v>1</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="D153" t="s">
+        <v>216</v>
+      </c>
+      <c r="E153" t="s">
+        <v>215</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
         <v>233</v>
       </c>
-      <c r="H152" t="str">
+      <c r="H153" t="str">
         <f t="shared" si="8"/>
         <v>6043.223,</v>
       </c>
-      <c r="I152">
+      <c r="I153">
         <f t="shared" si="9"/>
         <v>17140.126607526869</v>
       </c>
-      <c r="J152">
+      <c r="J153">
         <f t="shared" si="10"/>
         <v>604.32230000000004</v>
       </c>
-      <c r="K152">
+      <c r="K153">
         <f t="shared" si="11"/>
         <v>2247.4112468658459</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A153">
-        <v>1</v>
-      </c>
-      <c r="B153" t="s">
-        <v>216</v>
-      </c>
-      <c r="C153">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>216</v>
+      </c>
+      <c r="C154">
         <v>6059.3720000000003</v>
       </c>
-      <c r="D153" t="s">
-        <v>216</v>
-      </c>
-      <c r="E153" t="s">
-        <v>215</v>
-      </c>
-      <c r="F153" t="s">
-        <v>1</v>
-      </c>
-      <c r="G153" t="s">
+      <c r="D154" t="s">
+        <v>216</v>
+      </c>
+      <c r="E154" t="s">
+        <v>215</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
         <v>233</v>
       </c>
-      <c r="H153" t="str">
+      <c r="H154" t="str">
         <f t="shared" si="8"/>
         <v>6059.372,</v>
       </c>
-      <c r="I153">
+      <c r="I154">
         <f t="shared" si="9"/>
         <v>17144.536717286672</v>
       </c>
-      <c r="J153">
+      <c r="J154">
         <f t="shared" si="10"/>
         <v>605.93720000000008</v>
       </c>
-      <c r="K153">
+      <c r="K154">
         <f t="shared" si="11"/>
         <v>2291.5123444638775</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A154">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155">
         <v>30</v>
       </c>
-      <c r="B154" t="s">
-        <v>216</v>
-      </c>
-      <c r="C154">
+      <c r="B155" t="s">
+        <v>216</v>
+      </c>
+      <c r="C155">
         <v>6114.9229999999998</v>
       </c>
-      <c r="D154" t="s">
-        <v>216</v>
-      </c>
-      <c r="E154" t="s">
-        <v>214</v>
-      </c>
-      <c r="F154" t="s">
-        <v>1</v>
-      </c>
-      <c r="G154" t="s">
+      <c r="D155" t="s">
+        <v>216</v>
+      </c>
+      <c r="E155" t="s">
+        <v>214</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
         <v>227</v>
       </c>
-      <c r="H154" t="str">
+      <c r="H155" t="str">
         <f t="shared" si="8"/>
         <v>6114.923,</v>
       </c>
-      <c r="I154">
+      <c r="I155">
         <f t="shared" si="9"/>
         <v>17159.529190198788</v>
       </c>
-      <c r="J154">
+      <c r="J155">
         <f t="shared" si="10"/>
         <v>611.4923</v>
       </c>
-      <c r="K154">
+      <c r="K155">
         <f t="shared" si="11"/>
         <v>2441.4370735850553</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A155">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156">
         <v>50</v>
       </c>
-      <c r="B155" t="s">
-        <v>216</v>
-      </c>
-      <c r="C155">
+      <c r="B156" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156">
         <v>6172.2780000000002</v>
       </c>
-      <c r="D155" t="s">
-        <v>216</v>
-      </c>
-      <c r="E155" t="s">
-        <v>214</v>
-      </c>
-      <c r="F155" t="s">
-        <v>1</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="D156" t="s">
+        <v>216</v>
+      </c>
+      <c r="E156" t="s">
+        <v>214</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
         <v>232</v>
       </c>
-      <c r="H155" t="str">
+      <c r="H156" t="str">
         <f t="shared" si="8"/>
         <v>6172.278,</v>
       </c>
-      <c r="I155">
+      <c r="I156">
         <f t="shared" si="9"/>
         <v>17174.725383625599</v>
       </c>
-      <c r="J155">
+      <c r="J156">
         <f t="shared" si="10"/>
         <v>617.2278</v>
       </c>
-      <c r="K155">
+      <c r="K156">
         <f t="shared" si="11"/>
         <v>2593.3990078531533</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A156">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157">
         <v>8</v>
       </c>
-      <c r="B156" t="s">
-        <v>216</v>
-      </c>
-      <c r="C156">
+      <c r="B157" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157">
         <v>6243.12</v>
       </c>
-      <c r="D156" t="s">
-        <v>216</v>
-      </c>
-      <c r="E156" t="s">
-        <v>214</v>
-      </c>
-      <c r="F156" t="s">
-        <v>1</v>
-      </c>
-      <c r="G156" t="s">
+      <c r="D157" t="s">
+        <v>216</v>
+      </c>
+      <c r="E157" t="s">
+        <v>214</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
         <v>225</v>
       </c>
-      <c r="H156" t="str">
+      <c r="H157" t="str">
         <f t="shared" si="8"/>
         <v>6243.12,</v>
       </c>
-      <c r="I156">
+      <c r="I157">
         <f t="shared" si="9"/>
         <v>17193.109537757802</v>
       </c>
-      <c r="J156">
+      <c r="J157">
         <f t="shared" si="10"/>
         <v>624.31200000000001</v>
       </c>
-      <c r="K156">
+      <c r="K157">
         <f t="shared" si="11"/>
         <v>2777.2405491751688</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A157">
-        <v>1</v>
-      </c>
-      <c r="B157" t="s">
-        <v>216</v>
-      </c>
-      <c r="C157">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>216</v>
+      </c>
+      <c r="C158">
         <v>6384.7169999999996</v>
       </c>
-      <c r="D157" t="s">
-        <v>216</v>
-      </c>
-      <c r="E157" t="s">
-        <v>215</v>
-      </c>
-      <c r="F157" t="s">
-        <v>1</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="D158" t="s">
+        <v>216</v>
+      </c>
+      <c r="E158" t="s">
+        <v>215</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
         <v>233</v>
       </c>
-      <c r="H157" t="str">
+      <c r="H158" t="str">
         <f t="shared" si="8"/>
         <v>6384.717,</v>
       </c>
-      <c r="I157">
+      <c r="I158">
         <f t="shared" si="9"/>
         <v>17228.632626220042</v>
       </c>
-      <c r="J157">
+      <c r="J158">
         <f t="shared" si="10"/>
         <v>638.47169999999994</v>
       </c>
-      <c r="K157">
+      <c r="K158">
         <f t="shared" si="11"/>
         <v>3132.4714337975711</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A158">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159">
         <v>2</v>
       </c>
-      <c r="B158" t="s">
-        <v>216</v>
-      </c>
-      <c r="C158">
+      <c r="B159" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159">
         <v>6416.3069999999998</v>
       </c>
-      <c r="D158" t="s">
-        <v>216</v>
-      </c>
-      <c r="E158" t="s">
-        <v>215</v>
-      </c>
-      <c r="F158" t="s">
-        <v>1</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="D159" t="s">
+        <v>216</v>
+      </c>
+      <c r="E159" t="s">
+        <v>215</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
         <v>222</v>
       </c>
-      <c r="H158" t="str">
+      <c r="H159" t="str">
         <f t="shared" si="8"/>
         <v>6416.307,</v>
       </c>
-      <c r="I158">
+      <c r="I159">
         <f t="shared" si="9"/>
         <v>17236.343841687973</v>
       </c>
-      <c r="J158">
+      <c r="J159">
         <f t="shared" si="10"/>
         <v>641.63069999999993</v>
       </c>
-      <c r="K158">
+      <c r="K159">
         <f t="shared" si="11"/>
         <v>3209.5835884768949</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A159">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160">
         <v>8</v>
       </c>
-      <c r="B159" t="s">
-        <v>216</v>
-      </c>
-      <c r="C159">
+      <c r="B160" t="s">
+        <v>216</v>
+      </c>
+      <c r="C160">
         <v>6483.0820000000003</v>
       </c>
-      <c r="D159" t="s">
-        <v>216</v>
-      </c>
-      <c r="E159" t="s">
-        <v>214</v>
-      </c>
-      <c r="F159" t="s">
-        <v>1</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="D160" t="s">
+        <v>216</v>
+      </c>
+      <c r="E160" t="s">
+        <v>214</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
         <v>225</v>
       </c>
-      <c r="H159" t="str">
+      <c r="H160" t="str">
         <f t="shared" si="8"/>
         <v>6483.082,</v>
       </c>
-      <c r="I159">
+      <c r="I160">
         <f t="shared" si="9"/>
         <v>17252.396510531933</v>
       </c>
-      <c r="J159">
+      <c r="J160">
         <f t="shared" si="10"/>
         <v>648.30820000000006</v>
       </c>
-      <c r="K159">
+      <c r="K160">
         <f t="shared" si="11"/>
         <v>3370.1102769165027</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161">
         <v>8</v>
       </c>
-      <c r="B160" t="s">
-        <v>216</v>
-      </c>
-      <c r="C160">
+      <c r="B161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161">
         <v>6638.2209999999995</v>
       </c>
-      <c r="D160" t="s">
-        <v>216</v>
-      </c>
-      <c r="E160" t="s">
-        <v>214</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="D161" t="s">
+        <v>216</v>
+      </c>
+      <c r="E161" t="s">
+        <v>214</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
         <v>225</v>
       </c>
-      <c r="H160" t="str">
+      <c r="H161" t="str">
         <f t="shared" si="8"/>
         <v>6638.221,</v>
       </c>
-      <c r="I160">
+      <c r="I161">
         <f t="shared" si="9"/>
         <v>17288.445057675261</v>
       </c>
-      <c r="J160">
+      <c r="J161">
         <f t="shared" si="10"/>
         <v>663.82209999999998</v>
       </c>
-      <c r="K160">
+      <c r="K161">
         <f t="shared" si="11"/>
         <v>3730.5957483497641</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A161">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162">
         <v>7</v>
       </c>
-      <c r="B161" t="s">
-        <v>216</v>
-      </c>
-      <c r="C161">
+      <c r="B162" t="s">
+        <v>216</v>
+      </c>
+      <c r="C162">
         <v>6639.74</v>
       </c>
-      <c r="D161" t="s">
-        <v>216</v>
-      </c>
-      <c r="E161" t="s">
-        <v>214</v>
-      </c>
-      <c r="F161" t="s">
-        <v>1</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="D162" t="s">
+        <v>216</v>
+      </c>
+      <c r="E162" t="s">
+        <v>214</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
         <v>229</v>
       </c>
-      <c r="H161" t="str">
+      <c r="H162" t="str">
         <f t="shared" si="8"/>
         <v>6639.74,</v>
       </c>
-      <c r="I161">
+      <c r="I162">
         <f t="shared" si="9"/>
         <v>17288.789689193643</v>
       </c>
-      <c r="J161">
+      <c r="J162">
         <f t="shared" si="10"/>
         <v>663.97399999999993</v>
       </c>
-      <c r="K161">
+      <c r="K162">
         <f t="shared" si="11"/>
         <v>3734.0420635336013</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A162">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163">
         <v>15</v>
       </c>
-      <c r="B162" t="s">
-        <v>216</v>
-      </c>
-      <c r="C162">
+      <c r="B163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163">
         <v>6643.6980000000003</v>
       </c>
-      <c r="D162" t="s">
-        <v>216</v>
-      </c>
-      <c r="E162" t="s">
-        <v>214</v>
-      </c>
-      <c r="F162" t="s">
-        <v>1</v>
-      </c>
-      <c r="G162" t="s">
+      <c r="D163" t="s">
+        <v>216</v>
+      </c>
+      <c r="E163" t="s">
+        <v>214</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
         <v>228</v>
       </c>
-      <c r="H162" t="str">
+      <c r="H163" t="str">
         <f t="shared" si="8"/>
         <v>6643.698,</v>
       </c>
-      <c r="I162">
+      <c r="I163">
         <f t="shared" si="9"/>
         <v>17289.686942017168</v>
       </c>
-      <c r="J162">
+      <c r="J163">
         <f t="shared" si="10"/>
         <v>664.36980000000005</v>
       </c>
-      <c r="K162">
+      <c r="K163">
         <f t="shared" si="11"/>
         <v>3743.0145917688606</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A163">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164">
         <v>8</v>
       </c>
-      <c r="B163" t="s">
-        <v>216</v>
-      </c>
-      <c r="C163">
+      <c r="B164" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164">
         <v>6666.3590000000004</v>
       </c>
-      <c r="D163" t="s">
-        <v>216</v>
-      </c>
-      <c r="E163" t="s">
-        <v>214</v>
-      </c>
-      <c r="F163" t="s">
-        <v>1</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="D164" t="s">
+        <v>216</v>
+      </c>
+      <c r="E164" t="s">
+        <v>214</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
         <v>225</v>
       </c>
-      <c r="H163" t="str">
+      <c r="H164" t="str">
         <f t="shared" si="8"/>
         <v>6666.359,</v>
       </c>
-      <c r="I163">
+      <c r="I164">
         <f t="shared" si="9"/>
         <v>17294.803530516543</v>
       </c>
-      <c r="J163">
+      <c r="J164">
         <f t="shared" si="10"/>
         <v>666.63589999999999</v>
       </c>
-      <c r="K163">
+      <c r="K164">
         <f t="shared" si="11"/>
         <v>3794.1804767626145</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A164">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>3</v>
       </c>
-      <c r="B164" t="s">
-        <v>216</v>
-      </c>
-      <c r="C164">
+      <c r="B165" t="s">
+        <v>216</v>
+      </c>
+      <c r="C165">
         <v>6677.2820000000002</v>
       </c>
-      <c r="D164" t="s">
-        <v>216</v>
-      </c>
-      <c r="E164" t="s">
-        <v>215</v>
-      </c>
-      <c r="F164" t="s">
-        <v>1</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="D165" t="s">
+        <v>216</v>
+      </c>
+      <c r="E165" t="s">
+        <v>215</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
         <v>223</v>
       </c>
-      <c r="H164" t="str">
+      <c r="H165" t="str">
         <f t="shared" si="8"/>
         <v>6677.282,</v>
       </c>
-      <c r="I164">
+      <c r="I165">
         <f t="shared" si="9"/>
         <v>17297.257411628587</v>
       </c>
-      <c r="J164">
+      <c r="J165">
         <f t="shared" si="10"/>
         <v>667.72820000000002</v>
       </c>
-      <c r="K164">
+      <c r="K165">
         <f t="shared" si="11"/>
         <v>3818.7192878830265</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A165">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166">
         <v>12</v>
       </c>
-      <c r="B165" t="s">
-        <v>216</v>
-      </c>
-      <c r="C165">
+      <c r="B166" t="s">
+        <v>216</v>
+      </c>
+      <c r="C166">
         <v>6684.2929999999997</v>
       </c>
-      <c r="D165" t="s">
-        <v>216</v>
-      </c>
-      <c r="E165" t="s">
-        <v>214</v>
-      </c>
-      <c r="F165" t="s">
-        <v>1</v>
-      </c>
-      <c r="G165" t="s">
+      <c r="D166" t="s">
+        <v>216</v>
+      </c>
+      <c r="E166" t="s">
+        <v>214</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
         <v>231</v>
       </c>
-      <c r="H165" t="str">
+      <c r="H166" t="str">
         <f t="shared" si="8"/>
         <v>6684.293,</v>
       </c>
-      <c r="I165">
+      <c r="I166">
         <f t="shared" si="9"/>
         <v>17298.828225654601</v>
       </c>
-      <c r="J165">
+      <c r="J166">
         <f t="shared" si="10"/>
         <v>668.42930000000001</v>
       </c>
-      <c r="K165">
+      <c r="K166">
         <f t="shared" si="11"/>
         <v>3834.4274281431826</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A166">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167">
         <v>4</v>
       </c>
-      <c r="B166" t="s">
-        <v>216</v>
-      </c>
-      <c r="C166">
+      <c r="B167" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167">
         <v>6752.8339999999998</v>
       </c>
-      <c r="D166" t="s">
-        <v>216</v>
-      </c>
-      <c r="E166" t="s">
-        <v>215</v>
-      </c>
-      <c r="F166" t="s">
-        <v>1</v>
-      </c>
-      <c r="G166" t="s">
+      <c r="D167" t="s">
+        <v>216</v>
+      </c>
+      <c r="E167" t="s">
+        <v>215</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
         <v>237</v>
       </c>
-      <c r="H166" t="str">
+      <c r="H167" t="str">
         <f t="shared" si="8"/>
         <v>6752.834,</v>
       </c>
-      <c r="I166">
+      <c r="I167">
         <f t="shared" si="9"/>
         <v>17314.013018934023</v>
       </c>
-      <c r="J166">
+      <c r="J167">
         <f t="shared" si="10"/>
         <v>675.28340000000003</v>
       </c>
-      <c r="K166">
+      <c r="K167">
         <f t="shared" si="11"/>
         <v>3986.2753609373958</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A167">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168">
         <v>7</v>
       </c>
-      <c r="B167" t="s">
-        <v>216</v>
-      </c>
-      <c r="C167">
+      <c r="B168" t="s">
+        <v>216</v>
+      </c>
+      <c r="C168">
         <v>6861.2690000000002</v>
       </c>
-      <c r="D167" t="s">
-        <v>216</v>
-      </c>
-      <c r="E167" t="s">
-        <v>214</v>
-      </c>
-      <c r="F167" t="s">
-        <v>1</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="D168" t="s">
+        <v>216</v>
+      </c>
+      <c r="E168" t="s">
+        <v>214</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
         <v>229</v>
       </c>
-      <c r="H167" t="str">
+      <c r="H168" t="str">
         <f t="shared" si="8"/>
         <v>6861.269,</v>
       </c>
-      <c r="I167">
+      <c r="I168">
         <f t="shared" si="9"/>
         <v>17337.416419366618</v>
       </c>
-      <c r="J167">
+      <c r="J168">
         <f t="shared" si="10"/>
         <v>686.12689999999998</v>
       </c>
-      <c r="K167">
+      <c r="K168">
         <f t="shared" si="11"/>
         <v>4220.3093652633634</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A168">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169">
         <v>4</v>
       </c>
-      <c r="B168" t="s">
-        <v>216</v>
-      </c>
-      <c r="C168">
+      <c r="B169" t="s">
+        <v>216</v>
+      </c>
+      <c r="C169">
         <v>6871.2889999999998</v>
       </c>
-      <c r="D168" t="s">
-        <v>216</v>
-      </c>
-      <c r="E168" t="s">
-        <v>215</v>
-      </c>
-      <c r="F168" t="s">
-        <v>1</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="D169" t="s">
+        <v>216</v>
+      </c>
+      <c r="E169" t="s">
+        <v>215</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
         <v>237</v>
       </c>
-      <c r="H168" t="str">
+      <c r="H169" t="str">
         <f t="shared" si="8"/>
         <v>6871.289,</v>
       </c>
-      <c r="I168">
+      <c r="I169">
         <f t="shared" si="9"/>
         <v>17339.541742944224</v>
       </c>
-      <c r="J168">
+      <c r="J169">
         <f t="shared" si="10"/>
         <v>687.12889999999993</v>
       </c>
-      <c r="K168">
+      <c r="K169">
         <f t="shared" si="11"/>
         <v>4241.562601039408</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169" t="s">
-        <v>216</v>
-      </c>
-      <c r="C169">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>216</v>
+      </c>
+      <c r="C170">
         <v>6937.6639999999998</v>
       </c>
-      <c r="D169" t="s">
-        <v>216</v>
-      </c>
-      <c r="E169" t="s">
-        <v>215</v>
-      </c>
-      <c r="F169" t="s">
-        <v>1</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="D170" t="s">
+        <v>216</v>
+      </c>
+      <c r="E170" t="s">
+        <v>215</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
         <v>233</v>
       </c>
-      <c r="H169" t="str">
+      <c r="H170" t="str">
         <f t="shared" si="8"/>
         <v>6937.664,</v>
       </c>
-      <c r="I169">
+      <c r="I170">
         <f t="shared" si="9"/>
         <v>17353.465391620717</v>
       </c>
-      <c r="J169">
+      <c r="J170">
         <f t="shared" si="10"/>
         <v>693.76639999999998</v>
       </c>
-      <c r="K169">
+      <c r="K170">
         <f t="shared" si="11"/>
         <v>4380.7990878043311</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A170">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A171">
         <v>300</v>
       </c>
-      <c r="B170" t="s">
-        <v>216</v>
-      </c>
-      <c r="C170">
+      <c r="B171" t="s">
+        <v>216</v>
+      </c>
+      <c r="C171">
         <v>6965.4309999999996</v>
       </c>
-      <c r="D170" t="s">
-        <v>216</v>
-      </c>
-      <c r="E170" t="s">
-        <v>215</v>
-      </c>
-      <c r="F170" t="s">
-        <v>1</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="D171" t="s">
+        <v>216</v>
+      </c>
+      <c r="E171" t="s">
+        <v>215</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
         <v>241</v>
       </c>
-      <c r="H170" t="str">
+      <c r="H171" t="str">
         <f t="shared" si="8"/>
         <v>6965.431,</v>
       </c>
-      <c r="I170">
+      <c r="I171">
         <f t="shared" si="9"/>
         <v>17359.211419161871</v>
       </c>
-      <c r="J170">
+      <c r="J171">
         <f t="shared" si="10"/>
         <v>696.54309999999998</v>
       </c>
-      <c r="K170">
+      <c r="K171">
         <f t="shared" si="11"/>
         <v>4438.2593632158714</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A171">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A172">
         <v>4</v>
       </c>
-      <c r="B171" t="s">
-        <v>216</v>
-      </c>
-      <c r="C171">
+      <c r="B172" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172">
         <v>7030.2510000000002</v>
       </c>
-      <c r="D171" t="s">
-        <v>216</v>
-      </c>
-      <c r="E171" t="s">
-        <v>215</v>
-      </c>
-      <c r="F171" t="s">
-        <v>1</v>
-      </c>
-      <c r="G171" t="s">
+      <c r="D172" t="s">
+        <v>216</v>
+      </c>
+      <c r="E172" t="s">
+        <v>215</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
         <v>237</v>
       </c>
-      <c r="H171" t="str">
+      <c r="H172" t="str">
         <f t="shared" si="8"/>
         <v>7030.251,</v>
       </c>
-      <c r="I171">
+      <c r="I172">
         <f t="shared" si="9"/>
         <v>17372.448438441777</v>
       </c>
-      <c r="J171">
+      <c r="J172">
         <f t="shared" si="10"/>
         <v>703.02510000000007</v>
       </c>
-      <c r="K171">
+      <c r="K172">
         <f t="shared" si="11"/>
         <v>4570.6295560149665</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A172">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A173">
         <v>300</v>
       </c>
-      <c r="B172" t="s">
-        <v>216</v>
-      </c>
-      <c r="C172">
+      <c r="B173" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173">
         <v>7067.2179999999998</v>
       </c>
-      <c r="D172" t="s">
-        <v>216</v>
-      </c>
-      <c r="E172" t="s">
-        <v>215</v>
-      </c>
-      <c r="F172" t="s">
-        <v>1</v>
-      </c>
-      <c r="G172" t="s">
+      <c r="D173" t="s">
+        <v>216</v>
+      </c>
+      <c r="E173" t="s">
+        <v>215</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
         <v>241</v>
       </c>
-      <c r="H172" t="str">
+      <c r="H173" t="str">
         <f t="shared" si="8"/>
         <v>7067.218,</v>
       </c>
-      <c r="I172">
+      <c r="I173">
         <f t="shared" si="9"/>
         <v>17379.888814534239</v>
       </c>
-      <c r="J172">
+      <c r="J173">
         <f t="shared" si="10"/>
         <v>706.72180000000003</v>
       </c>
-      <c r="K172">
+      <c r="K173">
         <f t="shared" si="11"/>
         <v>4645.0333169395726</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A173">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A174">
         <v>3</v>
       </c>
-      <c r="B173" t="s">
-        <v>216</v>
-      </c>
-      <c r="C173">
+      <c r="B174" t="s">
+        <v>216</v>
+      </c>
+      <c r="C174">
         <v>7068.7359999999999</v>
       </c>
-      <c r="D173" t="s">
-        <v>216</v>
-      </c>
-      <c r="E173" t="s">
-        <v>215</v>
-      </c>
-      <c r="F173" t="s">
-        <v>1</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="D174" t="s">
+        <v>216</v>
+      </c>
+      <c r="E174" t="s">
+        <v>215</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
         <v>223</v>
       </c>
-      <c r="H173" t="str">
+      <c r="H174" t="str">
         <f t="shared" si="8"/>
         <v>7068.736,</v>
       </c>
-      <c r="I173">
+      <c r="I174">
         <f t="shared" si="9"/>
         <v>17380.192680123117</v>
       </c>
-      <c r="J173">
+      <c r="J174">
         <f t="shared" si="10"/>
         <v>706.87360000000001</v>
       </c>
-      <c r="K173">
+      <c r="K174">
         <f t="shared" si="11"/>
         <v>4648.0719728283493</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A174">
-        <v>1</v>
-      </c>
-      <c r="B174" t="s">
-        <v>216</v>
-      </c>
-      <c r="C174">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>216</v>
+      </c>
+      <c r="C175">
         <v>7107.4780000000001</v>
       </c>
-      <c r="D174" t="s">
-        <v>216</v>
-      </c>
-      <c r="E174" t="s">
-        <v>215</v>
-      </c>
-      <c r="F174" t="s">
-        <v>1</v>
-      </c>
-      <c r="G174" t="s">
+      <c r="D175" t="s">
+        <v>216</v>
+      </c>
+      <c r="E175" t="s">
+        <v>215</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1</v>
+      </c>
+      <c r="G175" t="s">
         <v>233</v>
       </c>
-      <c r="H174" t="str">
+      <c r="H175" t="str">
         <f t="shared" si="8"/>
         <v>7107.478,</v>
       </c>
-      <c r="I174">
+      <c r="I175">
         <f t="shared" si="9"/>
         <v>17387.903929543048</v>
       </c>
-      <c r="J174">
+      <c r="J175">
         <f t="shared" si="10"/>
         <v>710.74779999999998</v>
       </c>
-      <c r="K174">
+      <c r="K175">
         <f t="shared" si="11"/>
         <v>4725.1844670276532</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175" t="s">
-        <v>216</v>
-      </c>
-      <c r="C175">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>216</v>
+      </c>
+      <c r="C176">
         <v>7125.82</v>
       </c>
-      <c r="D175" t="s">
-        <v>216</v>
-      </c>
-      <c r="E175" t="s">
-        <v>215</v>
-      </c>
-      <c r="F175" t="s">
-        <v>1</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="D176" t="s">
+        <v>216</v>
+      </c>
+      <c r="E176" t="s">
+        <v>215</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
         <v>233</v>
       </c>
-      <c r="H175" t="str">
+      <c r="H176" t="str">
         <f t="shared" si="8"/>
         <v>7125.82,</v>
       </c>
-      <c r="I175">
+      <c r="I176">
         <f t="shared" si="9"/>
         <v>17391.525494817586</v>
       </c>
-      <c r="J175">
+      <c r="J176">
         <f t="shared" si="10"/>
         <v>712.58199999999999</v>
       </c>
-      <c r="K175">
+      <c r="K176">
         <f t="shared" si="11"/>
         <v>4761.4001197730304</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A176">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A177">
         <v>30</v>
       </c>
-      <c r="B176" t="s">
-        <v>216</v>
-      </c>
-      <c r="C176">
+      <c r="B177" t="s">
+        <v>216</v>
+      </c>
+      <c r="C177">
         <v>7147.0420000000004</v>
       </c>
-      <c r="D176" t="s">
-        <v>216</v>
-      </c>
-      <c r="E176" t="s">
-        <v>215</v>
-      </c>
-      <c r="F176" t="s">
-        <v>1</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="D177" t="s">
+        <v>216</v>
+      </c>
+      <c r="E177" t="s">
+        <v>215</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
         <v>227</v>
       </c>
-      <c r="H176" t="str">
+      <c r="H177" t="str">
         <f t="shared" si="8"/>
         <v>7147.042,</v>
       </c>
-      <c r="I176">
+      <c r="I177">
         <f t="shared" si="9"/>
         <v>17395.692510435285</v>
       </c>
-      <c r="J176">
+      <c r="J177">
         <f t="shared" si="10"/>
         <v>714.70420000000001</v>
       </c>
-      <c r="K176">
+      <c r="K177">
         <f t="shared" si="11"/>
         <v>4803.0702759500273</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A177">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A178">
         <v>2</v>
       </c>
-      <c r="B177" t="s">
-        <v>216</v>
-      </c>
-      <c r="C177">
+      <c r="B178" t="s">
+        <v>216</v>
+      </c>
+      <c r="C178">
         <v>7206.98</v>
       </c>
-      <c r="D177" t="s">
-        <v>216</v>
-      </c>
-      <c r="E177" t="s">
-        <v>215</v>
-      </c>
-      <c r="F177" t="s">
-        <v>1</v>
-      </c>
-      <c r="G177" t="s">
+      <c r="D178" t="s">
+        <v>216</v>
+      </c>
+      <c r="E178" t="s">
+        <v>215</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
         <v>222</v>
       </c>
-      <c r="H177" t="str">
+      <c r="H178" t="str">
         <f t="shared" si="8"/>
         <v>7206.98,</v>
       </c>
-      <c r="I177">
+      <c r="I178">
         <f t="shared" si="9"/>
         <v>17407.32901639495</v>
       </c>
-      <c r="J177">
+      <c r="J178">
         <f t="shared" si="10"/>
         <v>720.69799999999998</v>
       </c>
-      <c r="K177">
+      <c r="K178">
         <f t="shared" si="11"/>
         <v>4919.435335546661</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A178">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A179">
         <v>60</v>
       </c>
-      <c r="B178" t="s">
-        <v>216</v>
-      </c>
-      <c r="C178">
+      <c r="B179" t="s">
+        <v>216</v>
+      </c>
+      <c r="C179">
         <v>7272.9359999999997</v>
       </c>
-      <c r="D178" t="s">
-        <v>216</v>
-      </c>
-      <c r="E178" t="s">
-        <v>215</v>
-      </c>
-      <c r="F178" t="s">
-        <v>1</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="D179" t="s">
+        <v>216</v>
+      </c>
+      <c r="E179" t="s">
+        <v>215</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
         <v>240</v>
       </c>
-      <c r="H178" t="str">
+      <c r="H179" t="str">
         <f t="shared" si="8"/>
         <v>7272.936,</v>
       </c>
-      <c r="I178">
+      <c r="I179">
         <f t="shared" si="9"/>
         <v>17419.912220078884</v>
       </c>
-      <c r="J178">
+      <c r="J179">
         <f t="shared" si="10"/>
         <v>727.29359999999997</v>
       </c>
-      <c r="K178">
+      <c r="K179">
         <f t="shared" si="11"/>
         <v>5045.2673723860134</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179" t="s">
-        <v>216</v>
-      </c>
-      <c r="C179">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180" t="s">
+        <v>216</v>
+      </c>
+      <c r="C180">
         <v>7311.7160000000003</v>
       </c>
-      <c r="D179" t="s">
-        <v>216</v>
-      </c>
-      <c r="E179" t="s">
-        <v>215</v>
-      </c>
-      <c r="F179" t="s">
-        <v>1</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="D180" t="s">
+        <v>216</v>
+      </c>
+      <c r="E180" t="s">
+        <v>215</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
         <v>233</v>
       </c>
-      <c r="H179" t="str">
+      <c r="H180" t="str">
         <f t="shared" si="8"/>
         <v>7311.716,</v>
       </c>
-      <c r="I179">
+      <c r="I180">
         <f t="shared" si="9"/>
         <v>17427.204758477281</v>
       </c>
-      <c r="J179">
+      <c r="J180">
         <f t="shared" si="10"/>
         <v>731.17160000000001</v>
       </c>
-      <c r="K179">
+      <c r="K180">
         <f t="shared" si="11"/>
         <v>5118.1927563699792</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180" t="s">
-        <v>216</v>
-      </c>
-      <c r="C180">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" t="s">
+        <v>216</v>
+      </c>
+      <c r="C181">
         <v>7316.0050000000001</v>
       </c>
-      <c r="D180" t="s">
-        <v>216</v>
-      </c>
-      <c r="E180" t="s">
-        <v>215</v>
-      </c>
-      <c r="F180" t="s">
-        <v>1</v>
-      </c>
-      <c r="G180" t="s">
+      <c r="D181" t="s">
+        <v>216</v>
+      </c>
+      <c r="E181" t="s">
+        <v>215</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
         <v>233</v>
       </c>
-      <c r="H180" t="str">
+      <c r="H181" t="str">
         <f t="shared" si="8"/>
         <v>7316.005,</v>
       </c>
-      <c r="I180">
+      <c r="I181">
         <f t="shared" si="9"/>
         <v>17428.006552359733</v>
       </c>
-      <c r="J180">
+      <c r="J181">
         <f t="shared" si="10"/>
         <v>731.60050000000001</v>
       </c>
-      <c r="K180">
+      <c r="K181">
         <f t="shared" si="11"/>
         <v>5126.2106951945207</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A181">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A182">
         <v>2</v>
       </c>
-      <c r="B181" t="s">
-        <v>216</v>
-      </c>
-      <c r="C181">
+      <c r="B182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C182">
         <v>7353.2929999999997</v>
       </c>
-      <c r="D181" t="s">
-        <v>216</v>
-      </c>
-      <c r="E181" t="s">
-        <v>215</v>
-      </c>
-      <c r="F181" t="s">
-        <v>1</v>
-      </c>
-      <c r="G181" t="s">
+      <c r="D182" t="s">
+        <v>216</v>
+      </c>
+      <c r="E182" t="s">
+        <v>215</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
         <v>222</v>
       </c>
-      <c r="H181" t="str">
+      <c r="H182" t="str">
         <f t="shared" si="8"/>
         <v>7353.293,</v>
       </c>
-      <c r="I181">
+      <c r="I182">
         <f t="shared" si="9"/>
         <v>17434.937828877948</v>
       </c>
-      <c r="J181">
+      <c r="J182">
         <f t="shared" si="10"/>
         <v>735.32929999999999</v>
       </c>
-      <c r="K181">
+      <c r="K182">
         <f t="shared" si="11"/>
         <v>5195.523460376653</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A182">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A183">
         <v>6</v>
       </c>
-      <c r="B182" t="s">
-        <v>216</v>
-      </c>
-      <c r="C182">
+      <c r="B183" t="s">
+        <v>216</v>
+      </c>
+      <c r="C183">
         <v>7372.1180000000004</v>
       </c>
-      <c r="D182" t="s">
-        <v>216</v>
-      </c>
-      <c r="E182" t="s">
-        <v>215</v>
-      </c>
-      <c r="F182" t="s">
-        <v>1</v>
-      </c>
-      <c r="G182" t="s">
+      <c r="D183" t="s">
+        <v>216</v>
+      </c>
+      <c r="E183" t="s">
+        <v>215</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
         <v>236</v>
       </c>
-      <c r="H182" t="str">
+      <c r="H183" t="str">
         <f t="shared" si="8"/>
         <v>7372.118,</v>
       </c>
-      <c r="I182">
+      <c r="I183">
         <f t="shared" si="9"/>
         <v>17438.410477451143</v>
       </c>
-      <c r="J182">
+      <c r="J183">
         <f t="shared" si="10"/>
         <v>737.21180000000004</v>
       </c>
-      <c r="K182">
+      <c r="K183">
         <f t="shared" si="11"/>
         <v>5230.2499461085899</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A183">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A184">
         <v>7</v>
       </c>
-      <c r="B183" t="s">
-        <v>216</v>
-      </c>
-      <c r="C183">
+      <c r="B184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C184">
         <v>7380.4260000000004</v>
       </c>
-      <c r="D183" t="s">
-        <v>216</v>
-      </c>
-      <c r="E183" t="s">
-        <v>214</v>
-      </c>
-      <c r="F183" t="s">
-        <v>1</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="D184" t="s">
+        <v>216</v>
+      </c>
+      <c r="E184" t="s">
+        <v>214</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
         <v>229</v>
       </c>
-      <c r="H183" t="str">
+      <c r="H184" t="str">
         <f t="shared" si="8"/>
         <v>7380.426,</v>
       </c>
-      <c r="I183">
+      <c r="I184">
         <f t="shared" si="9"/>
         <v>17439.937420290582</v>
       </c>
-      <c r="J183">
+      <c r="J184">
         <f t="shared" si="10"/>
         <v>738.04259999999999</v>
       </c>
-      <c r="K183">
+      <c r="K184">
         <f t="shared" si="11"/>
         <v>5245.519374502981</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A184">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>300</v>
       </c>
-      <c r="B184" t="s">
-        <v>216</v>
-      </c>
-      <c r="C184">
+      <c r="B185" t="s">
+        <v>216</v>
+      </c>
+      <c r="C185">
         <v>7383.98</v>
       </c>
-      <c r="D184" t="s">
-        <v>216</v>
-      </c>
-      <c r="E184" t="s">
-        <v>215</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="D185" t="s">
+        <v>216</v>
+      </c>
+      <c r="E185" t="s">
+        <v>215</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
         <v>241</v>
       </c>
-      <c r="H184" t="str">
+      <c r="H185" t="str">
         <f t="shared" si="8"/>
         <v>7383.98,</v>
       </c>
-      <c r="I184">
+      <c r="I185">
         <f t="shared" si="9"/>
         <v>17440.589567261828</v>
       </c>
-      <c r="J184">
+      <c r="J185">
         <f t="shared" si="10"/>
         <v>738.39799999999991</v>
       </c>
-      <c r="K184">
+      <c r="K185">
         <f t="shared" si="11"/>
         <v>5252.0408442154476</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185" t="s">
-        <v>216</v>
-      </c>
-      <c r="C185">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>216</v>
+      </c>
+      <c r="C186">
         <v>7392.98</v>
       </c>
-      <c r="D185" t="s">
-        <v>216</v>
-      </c>
-      <c r="E185" t="s">
-        <v>215</v>
-      </c>
-      <c r="F185" t="s">
-        <v>1</v>
-      </c>
-      <c r="G185" t="s">
+      <c r="D186" t="s">
+        <v>216</v>
+      </c>
+      <c r="E186" t="s">
+        <v>215</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
         <v>233</v>
       </c>
-      <c r="H185" t="str">
+      <c r="H186" t="str">
         <f t="shared" si="8"/>
         <v>7392.98,</v>
       </c>
-      <c r="I185">
+      <c r="I186">
         <f t="shared" si="9"/>
         <v>17442.238232444615</v>
       </c>
-      <c r="J185">
+      <c r="J186">
         <f t="shared" si="10"/>
         <v>739.298</v>
       </c>
-      <c r="K185">
+      <c r="K186">
         <f t="shared" si="11"/>
         <v>5268.5274960433271</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A186">
-        <v>1</v>
-      </c>
-      <c r="B186" t="s">
-        <v>216</v>
-      </c>
-      <c r="C186">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187">
         <v>7435.3680000000004</v>
       </c>
-      <c r="D186" t="s">
-        <v>216</v>
-      </c>
-      <c r="E186" t="s">
-        <v>215</v>
-      </c>
-      <c r="F186" t="s">
-        <v>1</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="D187" t="s">
+        <v>216</v>
+      </c>
+      <c r="E187" t="s">
+        <v>215</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
         <v>233</v>
       </c>
-      <c r="H186" t="str">
+      <c r="H187" t="str">
         <f t="shared" si="8"/>
         <v>7435.368,</v>
       </c>
-      <c r="I186">
+      <c r="I187">
         <f t="shared" si="9"/>
         <v>17449.949413962382</v>
       </c>
-      <c r="J186">
+      <c r="J187">
         <f t="shared" si="10"/>
         <v>743.53680000000008</v>
       </c>
-      <c r="K186">
+      <c r="K187">
         <f t="shared" si="11"/>
         <v>5345.6393112210008</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A187">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A188">
         <v>600</v>
       </c>
-      <c r="B187" t="s">
-        <v>216</v>
-      </c>
-      <c r="C187">
+      <c r="B188" t="s">
+        <v>216</v>
+      </c>
+      <c r="C188">
         <v>7503.8689999999997</v>
       </c>
-      <c r="D187" t="s">
-        <v>216</v>
-      </c>
-      <c r="E187" t="s">
-        <v>215</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1</v>
-      </c>
-      <c r="G187" t="s">
+      <c r="D188" t="s">
+        <v>216</v>
+      </c>
+      <c r="E188" t="s">
+        <v>215</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
         <v>243</v>
       </c>
-      <c r="H187" t="str">
+      <c r="H188" t="str">
         <f t="shared" si="8"/>
         <v>7503.869,</v>
       </c>
-      <c r="I187">
+      <c r="I188">
         <f t="shared" si="9"/>
         <v>17462.226892958704</v>
       </c>
-      <c r="J187">
+      <c r="J188">
         <f t="shared" si="10"/>
         <v>750.38689999999997</v>
       </c>
-      <c r="K187">
+      <c r="K188">
         <f t="shared" si="11"/>
         <v>5468.4141011842221</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A188">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A189">
         <v>400</v>
       </c>
-      <c r="B188" t="s">
-        <v>216</v>
-      </c>
-      <c r="C188">
+      <c r="B189" t="s">
+        <v>216</v>
+      </c>
+      <c r="C189">
         <v>7514.652</v>
       </c>
-      <c r="D188" t="s">
-        <v>216</v>
-      </c>
-      <c r="E188" t="s">
-        <v>215</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1</v>
-      </c>
-      <c r="G188" t="s">
+      <c r="D189" t="s">
+        <v>216</v>
+      </c>
+      <c r="E189" t="s">
+        <v>215</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1</v>
+      </c>
+      <c r="G189" t="s">
         <v>242</v>
       </c>
-      <c r="H188" t="str">
+      <c r="H189" t="str">
         <f t="shared" si="8"/>
         <v>7514.652,</v>
       </c>
-      <c r="I188">
+      <c r="I189">
         <f t="shared" si="9"/>
         <v>17464.139146562786</v>
       </c>
-      <c r="J188">
+      <c r="J189">
         <f t="shared" si="10"/>
         <v>751.46519999999998</v>
       </c>
-      <c r="K188">
+      <c r="K189">
         <f t="shared" si="11"/>
         <v>5487.5366372250282</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A189">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A190">
         <v>700</v>
       </c>
-      <c r="B189" t="s">
-        <v>216</v>
-      </c>
-      <c r="C189">
+      <c r="B190" t="s">
+        <v>216</v>
+      </c>
+      <c r="C190">
         <v>7635.1059999999998</v>
       </c>
-      <c r="D189" t="s">
-        <v>216</v>
-      </c>
-      <c r="E189" t="s">
-        <v>215</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="D190" t="s">
+        <v>216</v>
+      </c>
+      <c r="E190" t="s">
+        <v>215</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
         <v>246</v>
       </c>
-      <c r="H189" t="str">
+      <c r="H190" t="str">
         <f t="shared" si="8"/>
         <v>7635.106,</v>
       </c>
-      <c r="I189">
+      <c r="I190">
         <f t="shared" si="9"/>
         <v>17485.133247563841</v>
       </c>
-      <c r="J189">
+      <c r="J190">
         <f t="shared" si="10"/>
         <v>763.51059999999995</v>
       </c>
-      <c r="K189">
+      <c r="K190">
         <f t="shared" si="11"/>
         <v>5697.4776472355661</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A190">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191">
         <v>400</v>
       </c>
-      <c r="B190" t="s">
-        <v>216</v>
-      </c>
-      <c r="C190">
+      <c r="B191" t="s">
+        <v>216</v>
+      </c>
+      <c r="C191">
         <v>7723.7610000000004</v>
       </c>
-      <c r="D190" t="s">
-        <v>216</v>
-      </c>
-      <c r="E190" t="s">
-        <v>215</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="D191" t="s">
+        <v>216</v>
+      </c>
+      <c r="E191" t="s">
+        <v>215</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
         <v>242</v>
       </c>
-      <c r="H190" t="str">
+      <c r="H191" t="str">
         <f t="shared" si="8"/>
         <v>7723.761,</v>
       </c>
-      <c r="I190">
+      <c r="I191">
         <f t="shared" si="9"/>
         <v>17500.16672106992</v>
       </c>
-      <c r="J190">
+      <c r="J191">
         <f t="shared" si="10"/>
         <v>772.37610000000006</v>
       </c>
-      <c r="K190">
+      <c r="K191">
         <f t="shared" si="11"/>
         <v>5847.8123822963626</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A191">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A192">
         <v>300</v>
       </c>
-      <c r="B191" t="s">
-        <v>216</v>
-      </c>
-      <c r="C191">
+      <c r="B192" t="s">
+        <v>216</v>
+      </c>
+      <c r="C192">
         <v>7724.2070000000003</v>
       </c>
-      <c r="D191" t="s">
-        <v>216</v>
-      </c>
-      <c r="E191" t="s">
-        <v>215</v>
-      </c>
-      <c r="F191" t="s">
-        <v>1</v>
-      </c>
-      <c r="G191" t="s">
+      <c r="D192" t="s">
+        <v>216</v>
+      </c>
+      <c r="E192" t="s">
+        <v>215</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1</v>
+      </c>
+      <c r="G192" t="s">
         <v>241</v>
       </c>
-      <c r="H191" t="str">
+      <c r="H192" t="str">
         <f t="shared" si="8"/>
         <v>7724.207,</v>
       </c>
-      <c r="I191">
+      <c r="I192">
         <f t="shared" si="9"/>
         <v>17500.241478115244</v>
       </c>
-      <c r="J191">
+      <c r="J192">
         <f t="shared" si="10"/>
         <v>772.42070000000001</v>
       </c>
-      <c r="K191">
+      <c r="K192">
         <f t="shared" si="11"/>
         <v>5848.5599527495979</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A192">
-        <v>600</v>
-      </c>
-      <c r="B192" t="s">
-        <v>216</v>
-      </c>
-      <c r="C192">
-        <v>7948.1760000000004</v>
-      </c>
-      <c r="D192" t="s">
-        <v>216</v>
-      </c>
-      <c r="E192" t="s">
-        <v>215</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1</v>
-      </c>
-      <c r="G192" t="s">
-        <v>243</v>
-      </c>
-      <c r="H192" t="str">
-        <f t="shared" si="8"/>
-        <v>7948.176,</v>
-      </c>
-      <c r="I192">
-        <f t="shared" si="9"/>
-        <v>17536.722461083391</v>
-      </c>
-      <c r="J192">
-        <f t="shared" si="10"/>
-        <v>794.81760000000008</v>
-      </c>
-      <c r="K192">
-        <f t="shared" si="11"/>
-        <v>6213.3697824310839</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
@@ -15219,7 +15254,7 @@
         <v>216</v>
       </c>
       <c r="C193">
-        <v>8006.1570000000002</v>
+        <v>7948.1760000000004</v>
       </c>
       <c r="D193" t="s">
         <v>216</v>
@@ -15235,30 +15270,30 @@
       </c>
       <c r="H193" t="str">
         <f t="shared" si="8"/>
-        <v>8006.157,</v>
+        <v>7948.176,</v>
       </c>
       <c r="I193">
         <f t="shared" si="9"/>
-        <v>17545.83405012752</v>
+        <v>17536.722461083391</v>
       </c>
       <c r="J193">
         <f t="shared" si="10"/>
-        <v>800.61570000000006</v>
+        <v>794.81760000000008</v>
       </c>
       <c r="K193">
         <f t="shared" si="11"/>
-        <v>6304.4856728723662</v>
+        <v>6213.3697824310839</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B194" t="s">
         <v>216</v>
       </c>
       <c r="C194">
-        <v>8014.7860000000001</v>
+        <v>8006.1570000000002</v>
       </c>
       <c r="D194" t="s">
         <v>216</v>
@@ -15270,34 +15305,34 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="8"/>
-        <v>8014.786,</v>
+        <v>8006.157,</v>
       </c>
       <c r="I194">
         <f t="shared" si="9"/>
-        <v>17547.178809053879</v>
+        <v>17545.83405012752</v>
       </c>
       <c r="J194">
         <f t="shared" si="10"/>
-        <v>801.47860000000003</v>
+        <v>800.61570000000006</v>
       </c>
       <c r="K194">
         <f t="shared" si="11"/>
-        <v>6317.9332621359717</v>
+        <v>6304.4856728723662</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="B195" t="s">
         <v>216</v>
       </c>
       <c r="C195">
-        <v>8103.6930000000002</v>
+        <v>8014.7860000000001</v>
       </c>
       <c r="D195" t="s">
         <v>216</v>
@@ -15309,1193 +15344,1193 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H258" si="12">C195&amp;D195</f>
-        <v>8103.693,</v>
+        <f t="shared" si="8"/>
+        <v>8014.786,</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="13">((1/532.06)-(1/(C195)))*10^7</f>
-        <v>17560.867472479578</v>
+        <f t="shared" si="9"/>
+        <v>17547.178809053879</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="14">C195/10</f>
-        <v>810.36930000000007</v>
+        <f t="shared" si="10"/>
+        <v>801.47860000000003</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="15">(10^7/532.06)-(10^7)/J195</f>
-        <v>6454.8198963929754</v>
+        <f t="shared" si="11"/>
+        <v>6317.9332621359717</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196">
+        <v>600</v>
+      </c>
+      <c r="B196" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196">
+        <v>8103.6930000000002</v>
+      </c>
+      <c r="D196" t="s">
+        <v>216</v>
+      </c>
+      <c r="E196" t="s">
+        <v>215</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" t="s">
+        <v>243</v>
+      </c>
+      <c r="H196" t="str">
+        <f t="shared" ref="H196:H259" si="12">C196&amp;D196</f>
+        <v>8103.693,</v>
+      </c>
+      <c r="I196">
+        <f t="shared" ref="I196:I259" si="13">((1/532.06)-(1/(C196)))*10^7</f>
+        <v>17560.867472479578</v>
+      </c>
+      <c r="J196">
+        <f t="shared" ref="J196:J259" si="14">C196/10</f>
+        <v>810.36930000000007</v>
+      </c>
+      <c r="K196">
+        <f t="shared" ref="K196:K259" si="15">(10^7/532.06)-(10^7)/J196</f>
+        <v>6454.8198963929754</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A197">
         <v>1000</v>
       </c>
-      <c r="B196" t="s">
-        <v>216</v>
-      </c>
-      <c r="C196">
+      <c r="B197" t="s">
+        <v>216</v>
+      </c>
+      <c r="C197">
         <v>8115.3109999999997</v>
       </c>
-      <c r="D196" t="s">
-        <v>216</v>
-      </c>
-      <c r="E196" t="s">
-        <v>215</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1</v>
-      </c>
-      <c r="G196" t="s">
+      <c r="D197" t="s">
+        <v>216</v>
+      </c>
+      <c r="E197" t="s">
+        <v>215</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1</v>
+      </c>
+      <c r="G197" t="s">
         <v>247</v>
       </c>
-      <c r="H196" t="str">
+      <c r="H197" t="str">
         <f t="shared" si="12"/>
         <v>8115.311,</v>
       </c>
-      <c r="I196">
+      <c r="I197">
         <f t="shared" si="13"/>
         <v>17562.634092811866</v>
       </c>
-      <c r="J196">
+      <c r="J197">
         <f t="shared" si="14"/>
         <v>811.53109999999992</v>
       </c>
-      <c r="K196">
+      <c r="K197">
         <f t="shared" si="15"/>
         <v>6472.4860997158557</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A197">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A198">
         <v>300</v>
       </c>
-      <c r="B197" t="s">
-        <v>216</v>
-      </c>
-      <c r="C197">
+      <c r="B198" t="s">
+        <v>216</v>
+      </c>
+      <c r="C198">
         <v>8264.5220000000008</v>
       </c>
-      <c r="D197" t="s">
-        <v>216</v>
-      </c>
-      <c r="E197" t="s">
-        <v>215</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1</v>
-      </c>
-      <c r="G197" t="s">
+      <c r="D198" t="s">
+        <v>216</v>
+      </c>
+      <c r="E198" t="s">
+        <v>215</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1</v>
+      </c>
+      <c r="G198" t="s">
         <v>241</v>
       </c>
-      <c r="H197" t="str">
+      <c r="H198" t="str">
         <f t="shared" si="12"/>
         <v>8264.522,</v>
       </c>
-      <c r="I197">
+      <c r="I198">
         <f t="shared" si="13"/>
         <v>17584.881424669358</v>
       </c>
-      <c r="J197">
+      <c r="J198">
         <f t="shared" si="14"/>
         <v>826.45220000000006</v>
       </c>
-      <c r="K197">
+      <c r="K198">
         <f t="shared" si="15"/>
         <v>6694.9594182907713</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A198">
-        <v>1</v>
-      </c>
-      <c r="B198" t="s">
-        <v>216</v>
-      </c>
-      <c r="C198">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199" t="s">
+        <v>216</v>
+      </c>
+      <c r="C199">
         <v>8392.27</v>
       </c>
-      <c r="D198" t="s">
-        <v>216</v>
-      </c>
-      <c r="E198" t="s">
-        <v>215</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="D199" t="s">
+        <v>216</v>
+      </c>
+      <c r="E199" t="s">
+        <v>215</v>
+      </c>
+      <c r="F199" t="s">
         <v>198</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G199" t="s">
         <v>233</v>
       </c>
-      <c r="H198" t="str">
+      <c r="H199" t="str">
         <f t="shared" si="12"/>
         <v>8392.27,</v>
       </c>
-      <c r="I198">
+      <c r="I199">
         <f t="shared" si="13"/>
         <v>17603.300037624045</v>
       </c>
-      <c r="J198">
+      <c r="J199">
         <f t="shared" si="14"/>
         <v>839.22700000000009</v>
       </c>
-      <c r="K198">
+      <c r="K199">
         <f t="shared" si="15"/>
         <v>6879.145547837612</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A199">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A200">
         <v>400</v>
       </c>
-      <c r="B199" t="s">
-        <v>216</v>
-      </c>
-      <c r="C199">
+      <c r="B200" t="s">
+        <v>216</v>
+      </c>
+      <c r="C200">
         <v>8408.2099999999991</v>
       </c>
-      <c r="D199" t="s">
-        <v>216</v>
-      </c>
-      <c r="E199" t="s">
-        <v>215</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1</v>
-      </c>
-      <c r="G199" t="s">
+      <c r="D200" t="s">
+        <v>216</v>
+      </c>
+      <c r="E200" t="s">
+        <v>215</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200" t="s">
         <v>242</v>
       </c>
-      <c r="H199" t="str">
+      <c r="H200" t="str">
         <f t="shared" si="12"/>
         <v>8408.21,</v>
       </c>
-      <c r="I199">
+      <c r="I200">
         <f t="shared" si="13"/>
         <v>17605.558980868103</v>
       </c>
-      <c r="J199">
+      <c r="J200">
         <f t="shared" si="14"/>
         <v>840.82099999999991</v>
       </c>
-      <c r="K199">
+      <c r="K200">
         <f t="shared" si="15"/>
         <v>6901.7349802782028</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A200">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A201">
         <v>600</v>
       </c>
-      <c r="B200" t="s">
-        <v>216</v>
-      </c>
-      <c r="C200">
+      <c r="B201" t="s">
+        <v>216</v>
+      </c>
+      <c r="C201">
         <v>8424.6479999999992</v>
       </c>
-      <c r="D200" t="s">
-        <v>216</v>
-      </c>
-      <c r="E200" t="s">
-        <v>215</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="D201" t="s">
+        <v>216</v>
+      </c>
+      <c r="E201" t="s">
+        <v>215</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1</v>
+      </c>
+      <c r="G201" t="s">
         <v>243</v>
       </c>
-      <c r="H200" t="str">
+      <c r="H201" t="str">
         <f t="shared" si="12"/>
         <v>8424.648,</v>
       </c>
-      <c r="I200">
+      <c r="I201">
         <f t="shared" si="13"/>
         <v>17607.879545463824</v>
       </c>
-      <c r="J200">
+      <c r="J201">
         <f t="shared" si="14"/>
         <v>842.46479999999997</v>
       </c>
-      <c r="K200">
+      <c r="K201">
         <f t="shared" si="15"/>
         <v>6924.9406262353859</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A201">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A202">
         <v>400</v>
       </c>
-      <c r="B201" t="s">
-        <v>216</v>
-      </c>
-      <c r="C201">
+      <c r="B202" t="s">
+        <v>216</v>
+      </c>
+      <c r="C202">
         <v>8521.4419999999991</v>
       </c>
-      <c r="D201" t="s">
-        <v>216</v>
-      </c>
-      <c r="E201" t="s">
-        <v>215</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1</v>
-      </c>
-      <c r="G201" t="s">
+      <c r="D202" t="s">
+        <v>216</v>
+      </c>
+      <c r="E202" t="s">
+        <v>215</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
         <v>242</v>
       </c>
-      <c r="H201" t="str">
+      <c r="H202" t="str">
         <f t="shared" si="12"/>
         <v>8521.442,</v>
       </c>
-      <c r="I201">
+      <c r="I202">
         <f t="shared" si="13"/>
         <v>17621.362453765385</v>
       </c>
-      <c r="J201">
+      <c r="J202">
         <f t="shared" si="14"/>
         <v>852.14419999999996</v>
       </c>
-      <c r="K201">
+      <c r="K202">
         <f t="shared" si="15"/>
         <v>7059.769709251017</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A202">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A203">
         <v>130</v>
       </c>
-      <c r="B202" t="s">
-        <v>216</v>
-      </c>
-      <c r="C202">
+      <c r="B203" t="s">
+        <v>216</v>
+      </c>
+      <c r="C203">
         <v>8667.9439999999995</v>
       </c>
-      <c r="D202" t="s">
-        <v>216</v>
-      </c>
-      <c r="E202" t="s">
-        <v>215</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1</v>
-      </c>
-      <c r="G202" t="s">
+      <c r="D203" t="s">
+        <v>216</v>
+      </c>
+      <c r="E203" t="s">
+        <v>215</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
         <v>239</v>
       </c>
-      <c r="H202" t="str">
+      <c r="H203" t="str">
         <f t="shared" si="12"/>
         <v>8667.944,</v>
       </c>
-      <c r="I202">
+      <c r="I203">
         <f t="shared" si="13"/>
         <v>17641.196638976457</v>
       </c>
-      <c r="J202">
+      <c r="J203">
         <f t="shared" si="14"/>
         <v>866.7944</v>
       </c>
-      <c r="K202">
+      <c r="K203">
         <f t="shared" si="15"/>
         <v>7258.111561361744</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A203">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A204">
         <v>7</v>
       </c>
-      <c r="B203" t="s">
-        <v>216</v>
-      </c>
-      <c r="C203">
+      <c r="B204" t="s">
+        <v>216</v>
+      </c>
+      <c r="C204">
         <v>8771.86</v>
       </c>
-      <c r="D203" t="s">
-        <v>216</v>
-      </c>
-      <c r="E203" t="s">
-        <v>214</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1</v>
-      </c>
-      <c r="G203" t="s">
+      <c r="D204" t="s">
+        <v>216</v>
+      </c>
+      <c r="E204" t="s">
+        <v>214</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1</v>
+      </c>
+      <c r="G204" t="s">
         <v>229</v>
       </c>
-      <c r="H203" t="str">
+      <c r="H204" t="str">
         <f t="shared" si="12"/>
         <v>8771.86,</v>
       </c>
-      <c r="I203">
+      <c r="I204">
         <f t="shared" si="13"/>
         <v>17654.863684239193</v>
       </c>
-      <c r="J203">
+      <c r="J204">
         <f t="shared" si="14"/>
         <v>877.18600000000004</v>
       </c>
-      <c r="K203">
+      <c r="K204">
         <f t="shared" si="15"/>
         <v>7394.7820139890991</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A204">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A205">
         <v>5</v>
       </c>
-      <c r="B204" t="s">
-        <v>216</v>
-      </c>
-      <c r="C204">
+      <c r="B205" t="s">
+        <v>216</v>
+      </c>
+      <c r="C205">
         <v>8849.91</v>
       </c>
-      <c r="D204" t="s">
-        <v>216</v>
-      </c>
-      <c r="E204" t="s">
-        <v>215</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="D205" t="s">
+        <v>216</v>
+      </c>
+      <c r="E205" t="s">
+        <v>215</v>
+      </c>
+      <c r="F205" t="s">
         <v>198</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G205" t="s">
         <v>224</v>
       </c>
-      <c r="H204" t="str">
+      <c r="H205" t="str">
         <f t="shared" si="12"/>
         <v>8849.91,</v>
       </c>
-      <c r="I204">
+      <c r="I205">
         <f t="shared" si="13"/>
         <v>17664.917764818831</v>
       </c>
-      <c r="J204">
+      <c r="J205">
         <f t="shared" si="14"/>
         <v>884.99099999999999</v>
       </c>
-      <c r="K204">
+      <c r="K205">
         <f t="shared" si="15"/>
         <v>7495.3228197854933</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205" t="s">
-        <v>216</v>
-      </c>
-      <c r="C205">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>216</v>
+      </c>
+      <c r="C206">
         <v>9075.3940000000002</v>
       </c>
-      <c r="D205" t="s">
-        <v>216</v>
-      </c>
-      <c r="E205" t="s">
-        <v>215</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1</v>
-      </c>
-      <c r="G205" t="s">
+      <c r="D206" t="s">
+        <v>216</v>
+      </c>
+      <c r="E206" t="s">
+        <v>215</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
         <v>233</v>
       </c>
-      <c r="H205" t="str">
+      <c r="H206" t="str">
         <f t="shared" si="12"/>
         <v>9075.394,</v>
       </c>
-      <c r="I205">
+      <c r="I206">
         <f t="shared" si="13"/>
         <v>17692.992223276822</v>
       </c>
-      <c r="J205">
+      <c r="J206">
         <f t="shared" si="14"/>
         <v>907.5394</v>
       </c>
-      <c r="K205">
+      <c r="K206">
         <f t="shared" si="15"/>
         <v>7776.067404365378</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A206">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A207">
         <v>1000</v>
       </c>
-      <c r="B206" t="s">
-        <v>216</v>
-      </c>
-      <c r="C206">
+      <c r="B207" t="s">
+        <v>216</v>
+      </c>
+      <c r="C207">
         <v>9122.9670000000006</v>
       </c>
-      <c r="D206" t="s">
-        <v>216</v>
-      </c>
-      <c r="E206" t="s">
-        <v>215</v>
-      </c>
-      <c r="F206" t="s">
-        <v>1</v>
-      </c>
-      <c r="G206" t="s">
+      <c r="D207" t="s">
+        <v>216</v>
+      </c>
+      <c r="E207" t="s">
+        <v>215</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
         <v>247</v>
       </c>
-      <c r="H206" t="str">
+      <c r="H207" t="str">
         <f t="shared" si="12"/>
         <v>9122.967,</v>
       </c>
-      <c r="I206">
+      <c r="I207">
         <f t="shared" si="13"/>
         <v>17698.738134964569</v>
       </c>
-      <c r="J206">
+      <c r="J207">
         <f t="shared" si="14"/>
         <v>912.2967000000001</v>
       </c>
-      <c r="K206">
+      <c r="K207">
         <f t="shared" si="15"/>
         <v>7833.5265212428494</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A207">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A208">
         <v>15</v>
       </c>
-      <c r="B207" t="s">
-        <v>216</v>
-      </c>
-      <c r="C207">
+      <c r="B208" t="s">
+        <v>216</v>
+      </c>
+      <c r="C208">
         <v>9194.6380000000008</v>
       </c>
-      <c r="D207" t="s">
-        <v>216</v>
-      </c>
-      <c r="E207" t="s">
-        <v>215</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1</v>
-      </c>
-      <c r="G207" t="s">
+      <c r="D208" t="s">
+        <v>216</v>
+      </c>
+      <c r="E208" t="s">
+        <v>215</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1</v>
+      </c>
+      <c r="G208" t="s">
         <v>228</v>
       </c>
-      <c r="H207" t="str">
+      <c r="H208" t="str">
         <f t="shared" si="12"/>
         <v>9194.638,</v>
       </c>
-      <c r="I207">
+      <c r="I208">
         <f t="shared" si="13"/>
         <v>17707.282360916535</v>
       </c>
-      <c r="J207">
+      <c r="J208">
         <f t="shared" si="14"/>
         <v>919.46380000000011</v>
       </c>
-      <c r="K207">
+      <c r="K208">
         <f t="shared" si="15"/>
         <v>7918.9687807625396</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A208">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A209">
         <v>400</v>
       </c>
-      <c r="B208" t="s">
-        <v>216</v>
-      </c>
-      <c r="C208">
+      <c r="B209" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209">
         <v>9224.4989999999998</v>
       </c>
-      <c r="D208" t="s">
-        <v>216</v>
-      </c>
-      <c r="E208" t="s">
-        <v>215</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1</v>
-      </c>
-      <c r="G208" t="s">
+      <c r="D209" t="s">
+        <v>216</v>
+      </c>
+      <c r="E209" t="s">
+        <v>215</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1</v>
+      </c>
+      <c r="G209" t="s">
         <v>242</v>
       </c>
-      <c r="H208" t="str">
+      <c r="H209" t="str">
         <f t="shared" si="12"/>
         <v>9224.499,</v>
       </c>
-      <c r="I208">
+      <c r="I209">
         <f t="shared" si="13"/>
         <v>17710.80304392258</v>
       </c>
-      <c r="J208">
+      <c r="J209">
         <f t="shared" si="14"/>
         <v>922.44989999999996</v>
       </c>
-      <c r="K208">
+      <c r="K209">
         <f t="shared" si="15"/>
         <v>7954.1756108229602</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A209">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A210">
         <v>11</v>
       </c>
-      <c r="B209" t="s">
-        <v>216</v>
-      </c>
-      <c r="C209">
+      <c r="B210" t="s">
+        <v>216</v>
+      </c>
+      <c r="C210">
         <v>9291.5310000000009</v>
       </c>
-      <c r="D209" t="s">
-        <v>216</v>
-      </c>
-      <c r="E209" t="s">
-        <v>215</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1</v>
-      </c>
-      <c r="G209" t="s">
+      <c r="D210" t="s">
+        <v>216</v>
+      </c>
+      <c r="E210" t="s">
+        <v>215</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1</v>
+      </c>
+      <c r="G210" t="s">
         <v>235</v>
       </c>
-      <c r="H209" t="str">
+      <c r="H210" t="str">
         <f t="shared" si="12"/>
         <v>9291.531,</v>
       </c>
-      <c r="I209">
+      <c r="I210">
         <f t="shared" si="13"/>
         <v>17718.623860655767</v>
       </c>
-      <c r="J209">
+      <c r="J210">
         <f t="shared" si="14"/>
         <v>929.15310000000011</v>
       </c>
-      <c r="K209">
+      <c r="K210">
         <f t="shared" si="15"/>
         <v>8032.3837781548318</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A210">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A211">
         <v>50</v>
       </c>
-      <c r="B210" t="s">
-        <v>216</v>
-      </c>
-      <c r="C210">
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211">
         <v>9354.2199999999993</v>
       </c>
-      <c r="D210" t="s">
-        <v>216</v>
-      </c>
-      <c r="E210" t="s">
-        <v>215</v>
-      </c>
-      <c r="F210" t="s">
-        <v>1</v>
-      </c>
-      <c r="G210" t="s">
+      <c r="D211" t="s">
+        <v>216</v>
+      </c>
+      <c r="E211" t="s">
+        <v>215</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1</v>
+      </c>
+      <c r="G211" t="s">
         <v>232</v>
       </c>
-      <c r="H210" t="str">
+      <c r="H211" t="str">
         <f t="shared" si="12"/>
         <v>9354.22,</v>
       </c>
-      <c r="I210">
+      <c r="I211">
         <f t="shared" si="13"/>
         <v>17725.836537626183</v>
       </c>
-      <c r="J210">
+      <c r="J211">
         <f t="shared" si="14"/>
         <v>935.42199999999991</v>
       </c>
-      <c r="K210">
+      <c r="K211">
         <f t="shared" si="15"/>
         <v>8104.5105478589976</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A211">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A212">
         <v>700</v>
       </c>
-      <c r="B211" t="s">
-        <v>216</v>
-      </c>
-      <c r="C211">
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212">
         <v>9657.7860000000001</v>
       </c>
-      <c r="D211" t="s">
-        <v>216</v>
-      </c>
-      <c r="E211" t="s">
-        <v>215</v>
-      </c>
-      <c r="F211" t="s">
-        <v>1</v>
-      </c>
-      <c r="G211" t="s">
+      <c r="D212" t="s">
+        <v>216</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1</v>
+      </c>
+      <c r="G212" t="s">
         <v>246</v>
       </c>
-      <c r="H211" t="str">
+      <c r="H212" t="str">
         <f t="shared" si="12"/>
         <v>9657.786,</v>
       </c>
-      <c r="I211">
+      <c r="I212">
         <f t="shared" si="13"/>
         <v>17759.438757585289</v>
       </c>
-      <c r="J211">
+      <c r="J212">
         <f t="shared" si="14"/>
         <v>965.77859999999998</v>
       </c>
-      <c r="K211">
+      <c r="K212">
         <f t="shared" si="15"/>
         <v>8440.5327474500464</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A212">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A213">
         <v>130</v>
       </c>
-      <c r="B212" t="s">
-        <v>216</v>
-      </c>
-      <c r="C212">
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
+      <c r="C213">
         <v>9784.5030000000006</v>
       </c>
-      <c r="D212" t="s">
-        <v>216</v>
-      </c>
-      <c r="E212" t="s">
-        <v>215</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1</v>
-      </c>
-      <c r="G212" t="s">
+      <c r="D213" t="s">
+        <v>216</v>
+      </c>
+      <c r="E213" t="s">
+        <v>215</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1</v>
+      </c>
+      <c r="G213" t="s">
         <v>239</v>
       </c>
-      <c r="H212" t="str">
+      <c r="H213" t="str">
         <f t="shared" si="12"/>
         <v>9784.503,</v>
       </c>
-      <c r="I212">
+      <c r="I213">
         <f t="shared" si="13"/>
         <v>17772.848441278031</v>
       </c>
-      <c r="J212">
+      <c r="J213">
         <f t="shared" si="14"/>
         <v>978.45030000000008</v>
       </c>
-      <c r="K212">
+      <c r="K213">
         <f t="shared" si="15"/>
         <v>8574.6295843774824</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A213">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A214">
         <v>5</v>
       </c>
-      <c r="B213" t="s">
-        <v>216</v>
-      </c>
-      <c r="C213">
+      <c r="B214" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214">
         <v>10052.06</v>
       </c>
-      <c r="D213" t="s">
-        <v>216</v>
-      </c>
-      <c r="E213" t="s">
-        <v>215</v>
-      </c>
-      <c r="F213" t="s">
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+      <c r="E214" t="s">
+        <v>215</v>
+      </c>
+      <c r="F214" t="s">
         <v>198</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G214" t="s">
         <v>224</v>
       </c>
-      <c r="H213" t="str">
+      <c r="H214" t="str">
         <f t="shared" si="12"/>
         <v>10052.06,</v>
       </c>
-      <c r="I213">
+      <c r="I214">
         <f t="shared" si="13"/>
         <v>17800.051796639968</v>
       </c>
-      <c r="J213">
+      <c r="J214">
         <f t="shared" si="14"/>
         <v>1005.2059999999999</v>
       </c>
-      <c r="K213">
+      <c r="K214">
         <f t="shared" si="15"/>
         <v>8846.6631379968658</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A214">
-        <v>1</v>
-      </c>
-      <c r="B214" t="s">
-        <v>216</v>
-      </c>
-      <c r="C214">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
+        <v>216</v>
+      </c>
+      <c r="C215">
         <v>10332.719999999999</v>
       </c>
-      <c r="D214" t="s">
-        <v>216</v>
-      </c>
-      <c r="E214" t="s">
-        <v>215</v>
-      </c>
-      <c r="F214" t="s">
+      <c r="D215" t="s">
+        <v>216</v>
+      </c>
+      <c r="E215" t="s">
+        <v>215</v>
+      </c>
+      <c r="F215" t="s">
         <v>198</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G215" t="s">
         <v>233</v>
       </c>
-      <c r="H214" t="str">
+      <c r="H215" t="str">
         <f t="shared" si="12"/>
         <v>10332.72,</v>
       </c>
-      <c r="I214">
+      <c r="I215">
         <f t="shared" si="13"/>
         <v>17827.073379651509</v>
       </c>
-      <c r="J214">
+      <c r="J215">
         <f t="shared" si="14"/>
         <v>1033.2719999999999</v>
       </c>
-      <c r="K214">
+      <c r="K215">
         <f t="shared" si="15"/>
         <v>9116.8789681122416</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A215">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A216">
         <v>30</v>
       </c>
-      <c r="B215" t="s">
-        <v>216</v>
-      </c>
-      <c r="C215">
+      <c r="B216" t="s">
+        <v>216</v>
+      </c>
+      <c r="C216">
         <v>10467.177</v>
       </c>
-      <c r="D215" t="s">
-        <v>216</v>
-      </c>
-      <c r="E215" t="s">
-        <v>214</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1</v>
-      </c>
-      <c r="G215" t="s">
+      <c r="D216" t="s">
+        <v>216</v>
+      </c>
+      <c r="E216" t="s">
+        <v>214</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1</v>
+      </c>
+      <c r="G216" t="s">
         <v>227</v>
       </c>
-      <c r="H215" t="str">
+      <c r="H216" t="str">
         <f t="shared" si="12"/>
         <v>10467.177,</v>
       </c>
-      <c r="I215">
+      <c r="I216">
         <f t="shared" si="13"/>
         <v>17839.505327741263</v>
       </c>
-      <c r="J215">
+      <c r="J216">
         <f t="shared" si="14"/>
         <v>1046.7176999999999</v>
       </c>
-      <c r="K215">
+      <c r="K216">
         <f t="shared" si="15"/>
         <v>9241.1984490097748</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A216">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A217">
         <v>50</v>
       </c>
-      <c r="B216" t="s">
-        <v>216</v>
-      </c>
-      <c r="C216">
+      <c r="B217" t="s">
+        <v>216</v>
+      </c>
+      <c r="C217">
         <v>10470.054</v>
       </c>
-      <c r="D216" t="s">
-        <v>216</v>
-      </c>
-      <c r="E216" t="s">
-        <v>215</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1</v>
-      </c>
-      <c r="G216" t="s">
+      <c r="D217" t="s">
+        <v>216</v>
+      </c>
+      <c r="E217" t="s">
+        <v>215</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1</v>
+      </c>
+      <c r="G217" t="s">
         <v>232</v>
       </c>
-      <c r="H216" t="str">
+      <c r="H217" t="str">
         <f t="shared" si="12"/>
         <v>10470.054,</v>
       </c>
-      <c r="I216">
+      <c r="I217">
         <f t="shared" si="13"/>
         <v>17839.767847122621</v>
       </c>
-      <c r="J216">
+      <c r="J217">
         <f t="shared" si="14"/>
         <v>1047.0054</v>
       </c>
-      <c r="K216">
+      <c r="K217">
         <f t="shared" si="15"/>
         <v>9243.8236428233904</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A217">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A218">
         <v>5</v>
       </c>
-      <c r="B217" t="s">
-        <v>216</v>
-      </c>
-      <c r="C217">
+      <c r="B218" t="s">
+        <v>216</v>
+      </c>
+      <c r="C218">
         <v>10506.5</v>
       </c>
-      <c r="D217" t="s">
-        <v>216</v>
-      </c>
-      <c r="E217" t="s">
-        <v>215</v>
-      </c>
-      <c r="F217" t="s">
+      <c r="D218" t="s">
+        <v>216</v>
+      </c>
+      <c r="E218" t="s">
+        <v>215</v>
+      </c>
+      <c r="F218" t="s">
         <v>198</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G218" t="s">
         <v>224</v>
       </c>
-      <c r="H217" t="str">
+      <c r="H218" t="str">
         <f t="shared" si="12"/>
         <v>10506.5,</v>
       </c>
-      <c r="I217">
+      <c r="I218">
         <f t="shared" si="13"/>
         <v>17843.081010745878</v>
       </c>
-      <c r="J217">
+      <c r="J218">
         <f t="shared" si="14"/>
         <v>1050.6500000000001</v>
       </c>
-      <c r="K217">
+      <c r="K218">
         <f t="shared" si="15"/>
         <v>9276.9552790559756</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A218">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A219">
         <v>6</v>
       </c>
-      <c r="B218" t="s">
-        <v>216</v>
-      </c>
-      <c r="C218">
+      <c r="B219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C219">
         <v>10673.565000000001</v>
       </c>
-      <c r="D218" t="s">
-        <v>216</v>
-      </c>
-      <c r="E218" t="s">
-        <v>215</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1</v>
-      </c>
-      <c r="G218" t="s">
+      <c r="D219" t="s">
+        <v>216</v>
+      </c>
+      <c r="E219" t="s">
+        <v>215</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
         <v>236</v>
       </c>
-      <c r="H218" t="str">
+      <c r="H219" t="str">
         <f t="shared" si="12"/>
         <v>10673.565,</v>
       </c>
-      <c r="I218">
+      <c r="I219">
         <f t="shared" si="13"/>
         <v>17857.978665688148</v>
       </c>
-      <c r="J218">
+      <c r="J219">
         <f t="shared" si="14"/>
         <v>1067.3565000000001</v>
       </c>
-      <c r="K218">
+      <c r="K219">
         <f t="shared" si="15"/>
         <v>9425.9318284786514</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A219">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A220">
         <v>2</v>
       </c>
-      <c r="B219" t="s">
-        <v>216</v>
-      </c>
-      <c r="C219">
+      <c r="B220" t="s">
+        <v>216</v>
+      </c>
+      <c r="C220">
         <v>10683.034</v>
       </c>
-      <c r="D219" t="s">
-        <v>216</v>
-      </c>
-      <c r="E219" t="s">
-        <v>214</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1</v>
-      </c>
-      <c r="G219" t="s">
+      <c r="D220" t="s">
+        <v>216</v>
+      </c>
+      <c r="E220" t="s">
+        <v>214</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1</v>
+      </c>
+      <c r="G220" t="s">
         <v>222</v>
       </c>
-      <c r="H219" t="str">
+      <c r="H220" t="str">
         <f t="shared" si="12"/>
         <v>10683.034,</v>
       </c>
-      <c r="I219">
+      <c r="I220">
         <f t="shared" si="13"/>
         <v>17858.809089907227</v>
       </c>
-      <c r="J219">
+      <c r="J220">
         <f t="shared" si="14"/>
         <v>1068.3034</v>
       </c>
-      <c r="K219">
+      <c r="K220">
         <f t="shared" si="15"/>
         <v>9434.2360706694344</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A220">
-        <v>1</v>
-      </c>
-      <c r="B220" t="s">
-        <v>216</v>
-      </c>
-      <c r="C220">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C221">
         <v>10733.87</v>
       </c>
-      <c r="D220" t="s">
-        <v>216</v>
-      </c>
-      <c r="E220" t="s">
-        <v>215</v>
-      </c>
-      <c r="F220" t="s">
+      <c r="D221" t="s">
+        <v>216</v>
+      </c>
+      <c r="E221" t="s">
+        <v>215</v>
+      </c>
+      <c r="F221" t="s">
         <v>198</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G221" t="s">
         <v>233</v>
       </c>
-      <c r="H220" t="str">
+      <c r="H221" t="str">
         <f t="shared" si="12"/>
         <v>10733.87,</v>
       </c>
-      <c r="I220">
+      <c r="I221">
         <f t="shared" si="13"/>
         <v>17863.242321599741</v>
       </c>
-      <c r="J220">
+      <c r="J221">
         <f t="shared" si="14"/>
         <v>1073.3870000000002</v>
       </c>
-      <c r="K220">
+      <c r="K221">
         <f t="shared" si="15"/>
         <v>9478.5683875945797</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A221">
-        <v>1</v>
-      </c>
-      <c r="B221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C221">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>216</v>
+      </c>
+      <c r="C222">
         <v>10759.16</v>
       </c>
-      <c r="D221" t="s">
-        <v>216</v>
-      </c>
-      <c r="E221" t="s">
-        <v>215</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="D222" t="s">
+        <v>216</v>
+      </c>
+      <c r="E222" t="s">
+        <v>215</v>
+      </c>
+      <c r="F222" t="s">
         <v>198</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G222" t="s">
         <v>233</v>
       </c>
-      <c r="H221" t="str">
+      <c r="H222" t="str">
         <f t="shared" si="12"/>
         <v>10759.16,</v>
       </c>
-      <c r="I221">
+      <c r="I222">
         <f t="shared" si="13"/>
         <v>17865.432170412711</v>
       </c>
-      <c r="J221">
+      <c r="J222">
         <f t="shared" si="14"/>
         <v>1075.9159999999999</v>
       </c>
-      <c r="K221">
+      <c r="K222">
         <f t="shared" si="15"/>
         <v>9500.466875724278</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A222">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A223">
         <v>2</v>
       </c>
-      <c r="B222" t="s">
-        <v>216</v>
-      </c>
-      <c r="C222">
+      <c r="B223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C223">
         <v>10812.896000000001</v>
       </c>
-      <c r="D222" t="s">
-        <v>216</v>
-      </c>
-      <c r="E222" t="s">
-        <v>214</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1</v>
-      </c>
-      <c r="G222" t="s">
+      <c r="D223" t="s">
+        <v>216</v>
+      </c>
+      <c r="E223" t="s">
+        <v>214</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1</v>
+      </c>
+      <c r="G223" t="s">
         <v>222</v>
       </c>
-      <c r="H222" t="str">
+      <c r="H223" t="str">
         <f t="shared" si="12"/>
         <v>10812.896,</v>
       </c>
-      <c r="I222">
+      <c r="I223">
         <f t="shared" si="13"/>
         <v>17870.051138305567</v>
       </c>
-      <c r="J222">
+      <c r="J223">
         <f t="shared" si="14"/>
         <v>1081.2896000000001</v>
       </c>
-      <c r="K222">
+      <c r="K223">
         <f t="shared" si="15"/>
         <v>9546.6565546528655</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A223">
-        <v>1</v>
-      </c>
-      <c r="B223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C223">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>216</v>
+      </c>
+      <c r="C224">
         <v>11106.46</v>
       </c>
-      <c r="D223" t="s">
-        <v>216</v>
-      </c>
-      <c r="E223" t="s">
-        <v>215</v>
-      </c>
-      <c r="F223" t="s">
+      <c r="D224" t="s">
+        <v>216</v>
+      </c>
+      <c r="E224" t="s">
+        <v>215</v>
+      </c>
+      <c r="F224" t="s">
         <v>198</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G224" t="s">
         <v>233</v>
       </c>
-      <c r="H223" t="str">
+      <c r="H224" t="str">
         <f t="shared" si="12"/>
         <v>11106.46,</v>
       </c>
-      <c r="I223">
+      <c r="I224">
         <f t="shared" si="13"/>
         <v>17894.495860942017</v>
       </c>
-      <c r="J223">
+      <c r="J224">
         <f t="shared" si="14"/>
         <v>1110.646</v>
       </c>
-      <c r="K223">
+      <c r="K224">
         <f t="shared" si="15"/>
         <v>9791.1037810173639</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A224">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A225">
         <v>11</v>
       </c>
-      <c r="B224" t="s">
-        <v>216</v>
-      </c>
-      <c r="C224">
+      <c r="B225" t="s">
+        <v>216</v>
+      </c>
+      <c r="C225">
         <v>11488.109</v>
       </c>
-      <c r="D224" t="s">
-        <v>216</v>
-      </c>
-      <c r="E224" t="s">
-        <v>215</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1</v>
-      </c>
-      <c r="G224" t="s">
+      <c r="D225" t="s">
+        <v>216</v>
+      </c>
+      <c r="E225" t="s">
+        <v>215</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
         <v>235</v>
       </c>
-      <c r="H224" t="str">
+      <c r="H225" t="str">
         <f t="shared" si="12"/>
         <v>11488.109,</v>
       </c>
-      <c r="I224">
+      <c r="I225">
         <f t="shared" si="13"/>
         <v>17924.407480222166</v>
       </c>
-      <c r="J224">
+      <c r="J225">
         <f t="shared" si="14"/>
         <v>1148.8108999999999</v>
       </c>
-      <c r="K224">
+      <c r="K225">
         <f t="shared" si="15"/>
         <v>10090.219973818803</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A225">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>216</v>
-      </c>
-      <c r="C225">
-        <v>11668.71</v>
-      </c>
-      <c r="D225" t="s">
-        <v>216</v>
-      </c>
-      <c r="E225" t="s">
-        <v>215</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1</v>
-      </c>
-      <c r="G225" t="s">
-        <v>236</v>
-      </c>
-      <c r="H225" t="str">
-        <f t="shared" si="12"/>
-        <v>11668.71,</v>
-      </c>
-      <c r="I225">
-        <f t="shared" si="13"/>
-        <v>17937.879997729277</v>
-      </c>
-      <c r="J225">
-        <f t="shared" si="14"/>
-        <v>1166.8709999999999</v>
-      </c>
-      <c r="K225">
-        <f t="shared" si="15"/>
-        <v>10224.945148889945</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
@@ -16506,7 +16541,7 @@
         <v>216</v>
       </c>
       <c r="C226">
-        <v>12112.325999999999</v>
+        <v>11668.71</v>
       </c>
       <c r="D226" t="s">
         <v>216</v>
@@ -16522,30 +16557,30 @@
       </c>
       <c r="H226" t="str">
         <f t="shared" si="12"/>
-        <v>12112.326,</v>
+        <v>11668.71,</v>
       </c>
       <c r="I226">
         <f t="shared" si="13"/>
-        <v>17969.267503370709</v>
+        <v>17937.879997729277</v>
       </c>
       <c r="J226">
         <f t="shared" si="14"/>
-        <v>1211.2325999999998</v>
+        <v>1166.8709999999999</v>
       </c>
       <c r="K226">
         <f t="shared" si="15"/>
-        <v>10538.820205304259</v>
+        <v>10224.945148889945</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B227" t="s">
         <v>216</v>
       </c>
       <c r="C227">
-        <v>12139.737999999999</v>
+        <v>12112.325999999999</v>
       </c>
       <c r="D227" t="s">
         <v>216</v>
@@ -16557,23 +16592,23 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H227" t="str">
         <f t="shared" si="12"/>
-        <v>12139.738,</v>
+        <v>12112.326,</v>
       </c>
       <c r="I227">
         <f t="shared" si="13"/>
-        <v>17971.131752109799</v>
+        <v>17969.267503370709</v>
       </c>
       <c r="J227">
         <f t="shared" si="14"/>
-        <v>1213.9738</v>
+        <v>1211.2325999999998</v>
       </c>
       <c r="K227">
         <f t="shared" si="15"/>
-        <v>10557.462692695175</v>
+        <v>10538.820205304259</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
@@ -16584,7 +16619,7 @@
         <v>216</v>
       </c>
       <c r="C228">
-        <v>12343.393</v>
+        <v>12139.737999999999</v>
       </c>
       <c r="D228" t="s">
         <v>216</v>
@@ -16600,30 +16635,30 @@
       </c>
       <c r="H228" t="str">
         <f t="shared" si="12"/>
-        <v>12343.393,</v>
+        <v>12139.738,</v>
       </c>
       <c r="I228">
         <f t="shared" si="13"/>
-        <v>17984.722745663959</v>
+        <v>17971.131752109799</v>
       </c>
       <c r="J228">
         <f t="shared" si="14"/>
-        <v>1234.3393000000001</v>
+        <v>1213.9738</v>
       </c>
       <c r="K228">
         <f t="shared" si="15"/>
-        <v>10693.372628236768</v>
+        <v>10557.462692695175</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B229" t="s">
         <v>216</v>
       </c>
       <c r="C229">
-        <v>12402.826999999999</v>
+        <v>12343.393</v>
       </c>
       <c r="D229" t="s">
         <v>216</v>
@@ -16635,23 +16670,23 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H229" t="str">
         <f t="shared" si="12"/>
-        <v>12402.827,</v>
+        <v>12343.393,</v>
       </c>
       <c r="I229">
         <f t="shared" si="13"/>
-        <v>17988.604961861562</v>
+        <v>17984.722745663959</v>
       </c>
       <c r="J229">
         <f t="shared" si="14"/>
-        <v>1240.2827</v>
+        <v>1234.3393000000001</v>
       </c>
       <c r="K229">
         <f t="shared" si="15"/>
-        <v>10732.194790212794</v>
+        <v>10693.372628236768</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
@@ -16662,7 +16697,7 @@
         <v>216</v>
       </c>
       <c r="C230">
-        <v>12439.321</v>
+        <v>12402.826999999999</v>
       </c>
       <c r="D230" t="s">
         <v>216</v>
@@ -16678,30 +16713,30 @@
       </c>
       <c r="H230" t="str">
         <f t="shared" si="12"/>
-        <v>12439.321,</v>
+        <v>12402.827,</v>
       </c>
       <c r="I230">
         <f t="shared" si="13"/>
-        <v>17990.970359215506</v>
+        <v>17988.604961861562</v>
       </c>
       <c r="J230">
         <f t="shared" si="14"/>
-        <v>1243.9321</v>
+        <v>1240.2827</v>
       </c>
       <c r="K230">
         <f t="shared" si="15"/>
-        <v>10755.848763752216</v>
+        <v>10732.194790212794</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B231" t="s">
         <v>216</v>
       </c>
       <c r="C231">
-        <v>12456.12</v>
+        <v>12439.321</v>
       </c>
       <c r="D231" t="s">
         <v>216</v>
@@ -16713,34 +16748,34 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H231" t="str">
         <f t="shared" si="12"/>
-        <v>12456.12,</v>
+        <v>12439.321,</v>
       </c>
       <c r="I231">
         <f t="shared" si="13"/>
-        <v>17992.05454565632</v>
+        <v>17990.970359215506</v>
       </c>
       <c r="J231">
         <f t="shared" si="14"/>
-        <v>1245.6120000000001</v>
+        <v>1243.9321</v>
       </c>
       <c r="K231">
         <f t="shared" si="15"/>
-        <v>10766.690628160341</v>
+        <v>10755.848763752216</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B232" t="s">
         <v>216</v>
       </c>
       <c r="C232">
-        <v>12487.663</v>
+        <v>12456.12</v>
       </c>
       <c r="D232" t="s">
         <v>216</v>
@@ -16752,34 +16787,34 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H232" t="str">
         <f t="shared" si="12"/>
-        <v>12487.663,</v>
+        <v>12456.12,</v>
       </c>
       <c r="I232">
         <f t="shared" si="13"/>
-        <v>17994.082410669522</v>
+        <v>17992.05454565632</v>
       </c>
       <c r="J232">
         <f t="shared" si="14"/>
-        <v>1248.7663</v>
+        <v>1245.6120000000001</v>
       </c>
       <c r="K232">
         <f t="shared" si="15"/>
-        <v>10786.969278292392</v>
+        <v>10766.690628160341</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
         <v>216</v>
       </c>
       <c r="C233">
-        <v>12702.281000000001</v>
+        <v>12487.663</v>
       </c>
       <c r="D233" t="s">
         <v>216</v>
@@ -16791,34 +16826,34 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H233" t="str">
         <f t="shared" si="12"/>
-        <v>12702.281,</v>
+        <v>12487.663,</v>
       </c>
       <c r="I233">
         <f t="shared" si="13"/>
-        <v>18007.612580795347</v>
+        <v>17994.082410669522</v>
       </c>
       <c r="J233">
         <f t="shared" si="14"/>
-        <v>1270.2281</v>
+        <v>1248.7663</v>
       </c>
       <c r="K233">
         <f t="shared" si="15"/>
-        <v>10922.27097955066</v>
+        <v>10786.969278292392</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B234" t="s">
         <v>216</v>
       </c>
       <c r="C234">
-        <v>12733.418</v>
+        <v>12702.281000000001</v>
       </c>
       <c r="D234" t="s">
         <v>216</v>
@@ -16830,34 +16865,34 @@
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H234" t="str">
         <f t="shared" si="12"/>
-        <v>12733.418,</v>
+        <v>12702.281,</v>
       </c>
       <c r="I234">
         <f t="shared" si="13"/>
-        <v>18009.537666436911</v>
+        <v>18007.612580795347</v>
       </c>
       <c r="J234">
         <f t="shared" si="14"/>
-        <v>1273.3417999999999</v>
+        <v>1270.2281</v>
       </c>
       <c r="K234">
         <f t="shared" si="15"/>
-        <v>10941.521835966252</v>
+        <v>10922.27097955066</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B235" t="s">
         <v>216</v>
       </c>
       <c r="C235">
-        <v>12802.739</v>
+        <v>12733.418</v>
       </c>
       <c r="D235" t="s">
         <v>216</v>
@@ -16869,34 +16904,34 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H235" t="str">
         <f t="shared" si="12"/>
-        <v>12802.739,</v>
+        <v>12733.418,</v>
       </c>
       <c r="I235">
         <f t="shared" si="13"/>
-        <v>18013.789898239145</v>
+        <v>18009.537666436911</v>
       </c>
       <c r="J235">
         <f t="shared" si="14"/>
-        <v>1280.2738999999999</v>
+        <v>1273.3417999999999</v>
       </c>
       <c r="K235">
         <f t="shared" si="15"/>
-        <v>10984.04415398864</v>
+        <v>10941.521835966252</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
         <v>216</v>
       </c>
       <c r="C236">
-        <v>12933.195</v>
+        <v>12802.739</v>
       </c>
       <c r="D236" t="s">
         <v>216</v>
@@ -16908,34 +16943,34 @@
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H236" t="str">
         <f t="shared" si="12"/>
-        <v>12933.195,</v>
+        <v>12802.739,</v>
       </c>
       <c r="I236">
         <f t="shared" si="13"/>
-        <v>18021.66861232687</v>
+        <v>18013.789898239145</v>
       </c>
       <c r="J236">
         <f t="shared" si="14"/>
-        <v>1293.3195000000001</v>
+        <v>1280.2738999999999</v>
       </c>
       <c r="K236">
         <f t="shared" si="15"/>
-        <v>11062.831294865871</v>
+        <v>10984.04415398864</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B237" t="s">
         <v>216</v>
       </c>
       <c r="C237">
-        <v>12956.659</v>
+        <v>12933.195</v>
       </c>
       <c r="D237" t="s">
         <v>216</v>
@@ -16947,34 +16982,34 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H237" t="str">
         <f t="shared" si="12"/>
-        <v>12956.659,</v>
+        <v>12933.195,</v>
       </c>
       <c r="I237">
         <f t="shared" si="13"/>
-        <v>18023.068854633992</v>
+        <v>18021.66861232687</v>
       </c>
       <c r="J237">
         <f t="shared" si="14"/>
-        <v>1295.6659</v>
+        <v>1293.3195000000001</v>
       </c>
       <c r="K237">
         <f t="shared" si="15"/>
-        <v>11076.833717937103</v>
+        <v>11062.831294865871</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B238" t="s">
         <v>216</v>
       </c>
       <c r="C238">
-        <v>13008.263999999999</v>
+        <v>12956.659</v>
       </c>
       <c r="D238" t="s">
         <v>216</v>
@@ -16986,23 +17021,23 @@
         <v>1</v>
       </c>
       <c r="G238" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H238" t="str">
         <f t="shared" si="12"/>
-        <v>13008.264,</v>
+        <v>12956.659,</v>
       </c>
       <c r="I238">
         <f t="shared" si="13"/>
-        <v>18026.1306729112</v>
+        <v>18023.068854633992</v>
       </c>
       <c r="J238">
         <f t="shared" si="14"/>
-        <v>1300.8263999999999</v>
+        <v>1295.6659</v>
       </c>
       <c r="K238">
         <f t="shared" si="15"/>
-        <v>11107.451900709159</v>
+        <v>11076.833717937103</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
@@ -17013,7 +17048,7 @@
         <v>216</v>
       </c>
       <c r="C239">
-        <v>13213.99</v>
+        <v>13008.263999999999</v>
       </c>
       <c r="D239" t="s">
         <v>216</v>
@@ -17029,19 +17064,19 @@
       </c>
       <c r="H239" t="str">
         <f t="shared" si="12"/>
-        <v>13213.99,</v>
+        <v>13008.264,</v>
       </c>
       <c r="I239">
         <f t="shared" si="13"/>
-        <v>18038.099066586637</v>
+        <v>18026.1306729112</v>
       </c>
       <c r="J239">
         <f t="shared" si="14"/>
-        <v>1321.3989999999999</v>
+        <v>1300.8263999999999</v>
       </c>
       <c r="K239">
         <f t="shared" si="15"/>
-        <v>11227.135837463567</v>
+        <v>11107.451900709159</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
@@ -17052,7 +17087,7 @@
         <v>216</v>
       </c>
       <c r="C240">
-        <v>13228.107</v>
+        <v>13213.99</v>
       </c>
       <c r="D240" t="s">
         <v>216</v>
@@ -17068,30 +17103,30 @@
       </c>
       <c r="H240" t="str">
         <f t="shared" si="12"/>
-        <v>13228.107,</v>
+        <v>13213.99,</v>
       </c>
       <c r="I240">
         <f t="shared" si="13"/>
-        <v>18038.906693423323</v>
+        <v>18038.099066586637</v>
       </c>
       <c r="J240">
         <f t="shared" si="14"/>
-        <v>1322.8107</v>
+        <v>1321.3989999999999</v>
       </c>
       <c r="K240">
         <f t="shared" si="15"/>
-        <v>11235.212105830406</v>
+        <v>11227.135837463567</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
         <v>216</v>
       </c>
       <c r="C241">
-        <v>13230.9</v>
+        <v>13228.107</v>
       </c>
       <c r="D241" t="s">
         <v>216</v>
@@ -17103,34 +17138,34 @@
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H241" t="str">
         <f t="shared" si="12"/>
-        <v>13230.9,</v>
+        <v>13228.107,</v>
       </c>
       <c r="I241">
         <f t="shared" si="13"/>
-        <v>18039.066275403413</v>
+        <v>18038.906693423323</v>
       </c>
       <c r="J241">
         <f t="shared" si="14"/>
-        <v>1323.09</v>
+        <v>1322.8107</v>
       </c>
       <c r="K241">
         <f t="shared" si="15"/>
-        <v>11236.807925631289</v>
+        <v>11235.212105830406</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B242" t="s">
         <v>216</v>
       </c>
       <c r="C242">
-        <v>13272.64</v>
+        <v>13230.9</v>
       </c>
       <c r="D242" t="s">
         <v>216</v>
@@ -17142,34 +17177,34 @@
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" si="12"/>
-        <v>13272.64,</v>
+        <v>13230.9,</v>
       </c>
       <c r="I242">
         <f t="shared" si="13"/>
-        <v>18041.443147119458</v>
+        <v>18039.066275403413</v>
       </c>
       <c r="J242">
         <f t="shared" si="14"/>
-        <v>1327.2639999999999</v>
+        <v>1323.09</v>
       </c>
       <c r="K242">
         <f t="shared" si="15"/>
-        <v>11260.576642791759</v>
+        <v>11236.807925631289</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B243" t="s">
         <v>216</v>
       </c>
       <c r="C243">
-        <v>13313.21</v>
+        <v>13272.64</v>
       </c>
       <c r="D243" t="s">
         <v>216</v>
@@ -17181,23 +17216,23 @@
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H243" t="str">
         <f t="shared" si="12"/>
-        <v>13313.21,</v>
+        <v>13272.64,</v>
       </c>
       <c r="I243">
         <f t="shared" si="13"/>
-        <v>18043.739110252489</v>
+        <v>18041.443147119458</v>
       </c>
       <c r="J243">
         <f t="shared" si="14"/>
-        <v>1331.3209999999999</v>
+        <v>1327.2639999999999</v>
       </c>
       <c r="K243">
         <f t="shared" si="15"/>
-        <v>11283.53627412206</v>
+        <v>11260.576642791759</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
@@ -17208,7 +17243,7 @@
         <v>216</v>
       </c>
       <c r="C244">
-        <v>13367.111000000001</v>
+        <v>13313.21</v>
       </c>
       <c r="D244" t="s">
         <v>216</v>
@@ -17224,30 +17259,30 @@
       </c>
       <c r="H244" t="str">
         <f t="shared" si="12"/>
-        <v>13367.111,</v>
+        <v>13313.21,</v>
       </c>
       <c r="I244">
         <f t="shared" si="13"/>
-        <v>18046.767951322603</v>
+        <v>18043.739110252489</v>
       </c>
       <c r="J244">
         <f t="shared" si="14"/>
-        <v>1336.7111</v>
+        <v>1331.3209999999999</v>
       </c>
       <c r="K244">
         <f t="shared" si="15"/>
-        <v>11313.824684823208</v>
+        <v>11283.53627412206</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B245" t="s">
         <v>216</v>
       </c>
       <c r="C245">
-        <v>13499.41</v>
+        <v>13367.111000000001</v>
       </c>
       <c r="D245" t="s">
         <v>216</v>
@@ -17259,34 +17294,34 @@
         <v>1</v>
       </c>
       <c r="G245" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H245" t="str">
         <f t="shared" si="12"/>
-        <v>13499.41,</v>
+        <v>13367.111,</v>
       </c>
       <c r="I245">
         <f t="shared" si="13"/>
-        <v>18054.099643441943</v>
+        <v>18046.767951322603</v>
       </c>
       <c r="J245">
         <f t="shared" si="14"/>
-        <v>1349.941</v>
+        <v>1336.7111</v>
       </c>
       <c r="K245">
         <f t="shared" si="15"/>
-        <v>11387.141606016605</v>
+        <v>11313.824684823208</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B246" t="s">
         <v>216</v>
       </c>
       <c r="C246">
-        <v>13504.191000000001</v>
+        <v>13499.41</v>
       </c>
       <c r="D246" t="s">
         <v>216</v>
@@ -17298,34 +17333,34 @@
         <v>1</v>
       </c>
       <c r="G246" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H246" t="str">
         <f t="shared" si="12"/>
-        <v>13504.191,</v>
+        <v>13499.41,</v>
       </c>
       <c r="I246">
         <f t="shared" si="13"/>
-        <v>18054.361905451129</v>
+        <v>18054.099643441943</v>
       </c>
       <c r="J246">
         <f t="shared" si="14"/>
-        <v>1350.4191000000001</v>
+        <v>1349.941</v>
       </c>
       <c r="K246">
         <f t="shared" si="15"/>
-        <v>11389.764226108473</v>
+        <v>11387.141606016605</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B247" t="s">
         <v>216</v>
       </c>
       <c r="C247">
-        <v>13599.333000000001</v>
+        <v>13504.191000000001</v>
       </c>
       <c r="D247" t="s">
         <v>216</v>
@@ -17337,34 +17372,34 @@
         <v>1</v>
       </c>
       <c r="G247" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H247" t="str">
         <f t="shared" si="12"/>
-        <v>13599.333,</v>
+        <v>13504.191,</v>
       </c>
       <c r="I247">
         <f t="shared" si="13"/>
-        <v>18059.542577444448</v>
+        <v>18054.361905451129</v>
       </c>
       <c r="J247">
         <f t="shared" si="14"/>
-        <v>1359.9333000000001</v>
+        <v>1350.4191000000001</v>
       </c>
       <c r="K247">
         <f t="shared" si="15"/>
-        <v>11441.570946041644</v>
+        <v>11389.764226108473</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B248" t="s">
         <v>216</v>
       </c>
       <c r="C248">
-        <v>13622.659</v>
+        <v>13599.333000000001</v>
       </c>
       <c r="D248" t="s">
         <v>216</v>
@@ -17376,34 +17411,34 @@
         <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H248" t="str">
         <f t="shared" si="12"/>
-        <v>13622.659,</v>
+        <v>13599.333,</v>
       </c>
       <c r="I248">
         <f t="shared" si="13"/>
-        <v>18060.801679049226</v>
+        <v>18059.542577444448</v>
       </c>
       <c r="J248">
         <f t="shared" si="14"/>
-        <v>1362.2658999999999</v>
+        <v>1359.9333000000001</v>
       </c>
       <c r="K248">
         <f t="shared" si="15"/>
-        <v>11454.161962089416</v>
+        <v>11441.570946041644</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B249" t="s">
         <v>216</v>
       </c>
       <c r="C249">
-        <v>13678.55</v>
+        <v>13622.659</v>
       </c>
       <c r="D249" t="s">
         <v>216</v>
@@ -17415,34 +17450,34 @@
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H249" t="str">
         <f t="shared" si="12"/>
-        <v>13678.55,</v>
+        <v>13622.659,</v>
       </c>
       <c r="I249">
         <f t="shared" si="13"/>
-        <v>18063.801117345931</v>
+        <v>18060.801679049226</v>
       </c>
       <c r="J249">
         <f t="shared" si="14"/>
-        <v>1367.855</v>
+        <v>1362.2658999999999</v>
       </c>
       <c r="K249">
         <f t="shared" si="15"/>
-        <v>11484.15634505647</v>
+        <v>11454.161962089416</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B250" t="s">
         <v>216</v>
       </c>
       <c r="C250">
-        <v>13718.576999999999</v>
+        <v>13678.55</v>
       </c>
       <c r="D250" t="s">
         <v>216</v>
@@ -17454,34 +17489,34 @@
         <v>1</v>
       </c>
       <c r="G250" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="H250" t="str">
         <f t="shared" si="12"/>
-        <v>13718.577,</v>
+        <v>13678.55,</v>
       </c>
       <c r="I250">
         <f t="shared" si="13"/>
-        <v>18065.93418148144</v>
+        <v>18063.801117345931</v>
       </c>
       <c r="J250">
         <f t="shared" si="14"/>
-        <v>1371.8577</v>
+        <v>1367.855</v>
       </c>
       <c r="K250">
         <f t="shared" si="15"/>
-        <v>11505.486986411574</v>
+        <v>11484.15634505647</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B251" t="s">
         <v>216</v>
       </c>
       <c r="C251">
-        <v>14093.64</v>
+        <v>13718.576999999999</v>
       </c>
       <c r="D251" t="s">
         <v>216</v>
@@ -17493,34 +17528,34 @@
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H251" t="str">
         <f t="shared" si="12"/>
-        <v>14093.64,</v>
+        <v>13718.577,</v>
       </c>
       <c r="I251">
         <f t="shared" si="13"/>
-        <v>18085.332852768035</v>
+        <v>18065.93418148144</v>
       </c>
       <c r="J251">
         <f t="shared" si="14"/>
-        <v>1409.364</v>
+        <v>1371.8577</v>
       </c>
       <c r="K251">
         <f t="shared" si="15"/>
-        <v>11699.473699277525</v>
+        <v>11505.486986411574</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B252" t="s">
         <v>216</v>
       </c>
       <c r="C252">
-        <v>15046.5</v>
+        <v>14093.64</v>
       </c>
       <c r="D252" t="s">
         <v>216</v>
@@ -17532,34 +17567,34 @@
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H252" t="str">
         <f t="shared" si="12"/>
-        <v>15046.5,</v>
+        <v>14093.64,</v>
       </c>
       <c r="I252">
         <f t="shared" si="13"/>
-        <v>18130.266371844049</v>
+        <v>18085.332852768035</v>
       </c>
       <c r="J252">
         <f t="shared" si="14"/>
-        <v>1504.65</v>
+        <v>1409.364</v>
       </c>
       <c r="K252">
         <f t="shared" si="15"/>
-        <v>12148.80889003765</v>
+        <v>11699.473699277525</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B253" t="s">
         <v>216</v>
       </c>
       <c r="C253">
-        <v>15172.69</v>
+        <v>15046.5</v>
       </c>
       <c r="D253" t="s">
         <v>216</v>
@@ -17571,23 +17606,23 @@
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H253" t="str">
         <f t="shared" si="12"/>
-        <v>15172.69,</v>
+        <v>15046.5,</v>
       </c>
       <c r="I253">
         <f t="shared" si="13"/>
-        <v>18135.793847852507</v>
+        <v>18130.266371844049</v>
       </c>
       <c r="J253">
         <f t="shared" si="14"/>
-        <v>1517.269</v>
+        <v>1504.65</v>
       </c>
       <c r="K253">
         <f t="shared" si="15"/>
-        <v>12204.083650122244</v>
+        <v>12148.80889003765</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
@@ -17598,7 +17633,7 @@
         <v>216</v>
       </c>
       <c r="C254">
-        <v>15989.49</v>
+        <v>15172.69</v>
       </c>
       <c r="D254" t="s">
         <v>216</v>
@@ -17614,19 +17649,19 @@
       </c>
       <c r="H254" t="str">
         <f t="shared" si="12"/>
-        <v>15989.49,</v>
+        <v>15172.69,</v>
       </c>
       <c r="I254">
         <f t="shared" si="13"/>
-        <v>18169.461941981186</v>
+        <v>18135.793847852507</v>
       </c>
       <c r="J254">
         <f t="shared" si="14"/>
-        <v>1598.9490000000001</v>
+        <v>1517.269</v>
       </c>
       <c r="K254">
         <f t="shared" si="15"/>
-        <v>12540.76459140903</v>
+        <v>12204.083650122244</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
@@ -17637,7 +17672,7 @@
         <v>216</v>
       </c>
       <c r="C255">
-        <v>16519.86</v>
+        <v>15989.49</v>
       </c>
       <c r="D255" t="s">
         <v>216</v>
@@ -17653,30 +17688,30 @@
       </c>
       <c r="H255" t="str">
         <f t="shared" si="12"/>
-        <v>16519.86,</v>
+        <v>15989.49,</v>
       </c>
       <c r="I255">
         <f t="shared" si="13"/>
-        <v>18189.54075226585</v>
+        <v>18169.461941981186</v>
       </c>
       <c r="J255">
         <f t="shared" si="14"/>
-        <v>1651.9860000000001</v>
+        <v>1598.9490000000001</v>
       </c>
       <c r="K255">
         <f t="shared" si="15"/>
-        <v>12741.552694255675</v>
+        <v>12540.76459140903</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B256" t="s">
         <v>216</v>
       </c>
       <c r="C256">
-        <v>16940.580000000002</v>
+        <v>16519.86</v>
       </c>
       <c r="D256" t="s">
         <v>216</v>
@@ -17688,34 +17723,34 @@
         <v>1</v>
       </c>
       <c r="G256" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H256" t="str">
         <f t="shared" si="12"/>
-        <v>16940.58,</v>
+        <v>16519.86,</v>
       </c>
       <c r="I256">
         <f t="shared" si="13"/>
-        <v>18204.574197505139</v>
+        <v>18189.54075226585</v>
       </c>
       <c r="J256">
         <f t="shared" si="14"/>
-        <v>1694.0580000000002</v>
+        <v>1651.9860000000001</v>
       </c>
       <c r="K256">
         <f t="shared" si="15"/>
-        <v>12891.887146648558</v>
+        <v>12741.552694255675</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B257" t="s">
         <v>216</v>
       </c>
       <c r="C257">
-        <v>20616.23</v>
+        <v>16940.580000000002</v>
       </c>
       <c r="D257" t="s">
         <v>216</v>
@@ -17727,23 +17762,23 @@
         <v>1</v>
       </c>
       <c r="G257" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H257" t="str">
         <f t="shared" si="12"/>
-        <v>20616.23,</v>
+        <v>16940.58,</v>
       </c>
       <c r="I257">
         <f t="shared" si="13"/>
-        <v>18309.818022709744</v>
+        <v>18204.574197505139</v>
       </c>
       <c r="J257">
         <f t="shared" si="14"/>
-        <v>2061.623</v>
+        <v>1694.0580000000002</v>
       </c>
       <c r="K257">
         <f t="shared" si="15"/>
-        <v>13944.325398694586</v>
+        <v>12891.887146648558</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
@@ -17754,7 +17789,7 @@
         <v>216</v>
       </c>
       <c r="C258">
-        <v>20986.11</v>
+        <v>20616.23</v>
       </c>
       <c r="D258" t="s">
         <v>216</v>
@@ -17770,19 +17805,19 @@
       </c>
       <c r="H258" t="str">
         <f t="shared" si="12"/>
-        <v>20986.11,</v>
+        <v>20616.23,</v>
       </c>
       <c r="I258">
         <f t="shared" si="13"/>
-        <v>18318.367108069167</v>
+        <v>18309.818022709744</v>
       </c>
       <c r="J258">
         <f t="shared" si="14"/>
-        <v>2098.6109999999999</v>
+        <v>2061.623</v>
       </c>
       <c r="K258">
         <f t="shared" si="15"/>
-        <v>14029.816252288845</v>
+        <v>13944.325398694586</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
@@ -17793,7 +17828,7 @@
         <v>216</v>
       </c>
       <c r="C259">
-        <v>23133.200000000001</v>
+        <v>20986.11</v>
       </c>
       <c r="D259" t="s">
         <v>216</v>
@@ -17808,20 +17843,20 @@
         <v>233</v>
       </c>
       <c r="H259" t="str">
-        <f t="shared" ref="H259:H260" si="16">C259&amp;D259</f>
-        <v>23133.2,</v>
+        <f t="shared" si="12"/>
+        <v>20986.11,</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I260" si="17">((1/532.06)-(1/(C259)))*10^7</f>
-        <v>18362.593610128435</v>
+        <f t="shared" si="13"/>
+        <v>18318.367108069167</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J260" si="18">C259/10</f>
-        <v>2313.3200000000002</v>
+        <f t="shared" si="14"/>
+        <v>2098.6109999999999</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K260" si="19">(10^7/532.06)-(10^7)/J259</f>
-        <v>14472.081272881536</v>
+        <f t="shared" si="15"/>
+        <v>14029.816252288845</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
@@ -17832,7 +17867,7 @@
         <v>216</v>
       </c>
       <c r="C260">
-        <v>23966.52</v>
+        <v>23133.200000000001</v>
       </c>
       <c r="D260" t="s">
         <v>216</v>
@@ -17847,18 +17882,57 @@
         <v>233</v>
       </c>
       <c r="H260" t="str">
+        <f t="shared" ref="H260:H261" si="16">C260&amp;D260</f>
+        <v>23133.2,</v>
+      </c>
+      <c r="I260">
+        <f t="shared" ref="I260:I261" si="17">((1/532.06)-(1/(C260)))*10^7</f>
+        <v>18362.593610128435</v>
+      </c>
+      <c r="J260">
+        <f t="shared" ref="J260:J261" si="18">C260/10</f>
+        <v>2313.3200000000002</v>
+      </c>
+      <c r="K260">
+        <f t="shared" ref="K260:K261" si="19">(10^7/532.06)-(10^7)/J260</f>
+        <v>14472.081272881536</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>216</v>
+      </c>
+      <c r="C261">
+        <v>23966.52</v>
+      </c>
+      <c r="D261" t="s">
+        <v>216</v>
+      </c>
+      <c r="E261" t="s">
+        <v>215</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1</v>
+      </c>
+      <c r="G261" t="s">
+        <v>233</v>
+      </c>
+      <c r="H261" t="str">
         <f t="shared" si="16"/>
         <v>23966.52,</v>
       </c>
-      <c r="I260">
+      <c r="I261">
         <f t="shared" si="17"/>
         <v>18377.624030068302</v>
       </c>
-      <c r="J260">
+      <c r="J261">
         <f t="shared" si="18"/>
         <v>2396.652</v>
       </c>
-      <c r="K260">
+      <c r="K261">
         <f t="shared" si="19"/>
         <v>14622.385472280188</v>
       </c>
